--- a/哲学讲座.xlsx
+++ b/哲学讲座.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Relay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D5F70B-E561-4523-9BE0-108061FCFAB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5657463B-9A8D-452E-BBC2-BCD177A382DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="3444" windowWidth="19920" windowHeight="8628" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
+    <workbookView xWindow="840" yWindow="3732" windowWidth="19920" windowHeight="8628" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="346">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,6 +1256,129 @@
   </si>
   <si>
     <t>武汉大学振华楼B214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自足的人为什么需要朋友？
+亚里士多德论完美的友爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘玮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/1rC8l5_ouUpZAbH3t_L7mg</t>
+  </si>
+  <si>
+    <t>654 258 077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田洁（中国人民大学哲学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国学院228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲學、實踐和主體——實踐哲學的理論反思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹树广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-ktFsIHGmTFdU1_SJ2Szyg</t>
+  </si>
+  <si>
+    <t>华南师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马天俊</t>
+  </si>
+  <si>
+    <t>徐长福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学哲学系 锡昌堂420课室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要：李时珍《本草纲目》的药理学以法象药理为主，实验药理为辅，主要有三个哲学渊源：朱子的格物穷理理论，张载、王廷相的气本论和认识论，邵雍的象数之学。李时珍在格物穷理思想的指导下，用气本论与象数之学构建、充实了肇始于金元的法象药理，这也是《本草纲目》的主要药理学。《本草纲目》注重实验药理，其认识论渊源于张载、王廷相的“见、行、思”相联系的思想。在《本草纲目》中，非主流的实验药理对主流的法象药理有自我纠错的作用，是法象药理的有力补充。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学第八届国际交叉学科论坛哲学学院分论坛——第一场：《本草纲目》药理学的哲学渊源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/BdAs_0uUlagGS5bmhIzbRA</t>
+  </si>
+  <si>
+    <t>振华楼B214报告厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何欢欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解佛学从“缘起性空”开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/PN9zASJTNnN-unbwdX1Jzg</t>
+  </si>
+  <si>
+    <t>宗教学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈越骅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学紫金港校区人文大楼308室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李建华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名家讲座第26讲：关于道德空间的几个理论问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/stH-dcdWcUH6fB362AB0AA</t>
+  </si>
+  <si>
+    <t>浙江师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思主义学院特聘教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李佃来（武汉大学哲学学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学振华楼B214报告厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1652,14 +1775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B99913D-A3A8-4418-AE6B-B8A40D3CEF27}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
@@ -3813,6 +3937,238 @@
       <c r="R46" s="3" t="s">
         <v>313</v>
       </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s">
+        <v>316</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44271</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>315</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" t="s">
+        <v>317</v>
+      </c>
+      <c r="I47" t="s">
+        <v>155</v>
+      </c>
+      <c r="J47" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44271</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E48" t="s">
+        <v>322</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H48" t="s">
+        <v>323</v>
+      </c>
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44263</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" t="s">
+        <v>330</v>
+      </c>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E50" t="s">
+        <v>332</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H50" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44277</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E51" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H51" t="s">
+        <v>341</v>
+      </c>
+      <c r="I51" t="s">
+        <v>342</v>
+      </c>
+      <c r="J51" t="s">
+        <v>343</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="C52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/哲学讲座.xlsx
+++ b/哲学讲座.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Relay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5657463B-9A8D-452E-BBC2-BCD177A382DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72758FA-CE8F-4CC0-840B-0EEB7FE478A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="3732" windowWidth="19920" windowHeight="8628" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
+    <workbookView xWindow="11460" yWindow="1740" windowWidth="19920" windowHeight="8628" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="378">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1380,6 +1380,146 @@
   <si>
     <t>武汉大学振华楼B214报告厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何怀宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治、人文与乡土——当代儒学前景的一点思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何怀宏，北京大学哲学系教授，主要从事伦理学及人生哲学、社会与文明历史等领域的研究。重要学术著作有《良心论》《世袭社会》《选举社会》《底线伦理》《道德•上帝与人》《生命与自由》《公平的正义》《生生大德》《新纲常》《正义：历史的与现实的》《转型中国的社会伦理》（英文）等。另有哲学随笔、文集《若有所思》《心怀生命》《比天空更广阔的》《中国的忧伤》《渐行渐远渐无书》《独立知识分子》《一苇杭之》《念兹在兹》《活下去，但是要记住》《人类还有未来吗》等。编有《西方公民不服从的传统》《生态伦理》《平等二十讲》《自由二十讲》《域外文化读本》等。译著主要有《正义论》（合译）、诺齐克《无政府，国家与乌托邦》《沉思录》《道德箴言录》《伦理学导论》《伦理学体系》（合译）等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/jdBog1HXfDFyVlAhLtFcmQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈立胜（中山大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学哲学系锡昌堂515室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学社会学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕文胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“何谓知识？—从苏格拉底到波普尔的考察”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何谓知识问题构成西方哲学发展中的一个主要问题。在古希腊，从苏格拉底到亚里士多德，奠定了以普遍必然性为本质特征的传统知识观的基础；近代对这一传统知识观的捍卫交织着经验论与唯理论之间的证立与怀疑的斗争，最后完成于康德依然独断性的先天主体性的批判中；当代的分析哲学与现象学在各自反对心里主义的斗争中，共同维护着人类千年来的永久梦想——对普遍必然的本质的探索与执着。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/wJb7-B6C83T8fgl4R-aTgA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榆中校区第二教学楼A211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论道·名家讲坛（第142期）| 新中国伦理学的发展与未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与谈人：江畅 教授
+（湖北大学）
+李萍 教授
+（中山大学）
+王莹 教授
+（河北经贸大学）
+王淑芹 教授
+（首都师范大学）
+杨义芹 研究员
+（天津社会科学院）
+评议人：王小锡 教授
+（南京师范大学）
+主持人：王露璐 教授
+（南京师范大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Ct_nTldtWJ0ZzGxINuuhkQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪梁康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格现象学的问题与可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普凡德尔的性格学研究是否可以被称作“性格现象学”？名称问题当然只是次要的问题，在这里主要是关系并取决于首要的方法问题，即普凡德尔他的性格研究和性格分析中使用的手段是否属于现象学的方法。这里可以给出一个初步的回答：如果意识现象学的方法由两方面构成：作为超越论还原的反思和作为本质还原的本质直观，那么普凡德尔的性格学研究基础部分毫无疑问首先是描述心理学意义上的“性格现象学”，接下来才可能是他所说的“性格价值论”和“性格法理学”。而且他的性格学也有别于实验心理学和心理分析及其实验观察方式，因为普凡德尔的性格研究主要是在对本己主体的反思和对他人主体的同感理解中进行的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/iAG3D9ldX6niPhw-RGORkA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德文图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华全国外国哲学史学会古希腊罗马哲学专业委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学哲学系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五届全国古希腊罗马哲学大会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江璐（中山大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向红（中山大学）、詹文杰（中国社会科学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江璐（中山大学）、聂敏里（中国人民大学）、郝亿春（中山大学）、常旭旻（华侨大学）、王玉峰（北京市社会科学院）、田书峰（中山大学）、葛天勤（东南大学）、王纬（复旦大学）、罗兴刚（东北师范大学）、于江霞（浙江财经大学）、张波波（浙江财经大学）、董波（中山大学）、武小西（东南大学）、黄水石（中央美术学院）、胡辛凯（东南大学）、胡艾忻（中山大学）、张硕（延安大学）、黄俊松（中山大学）、田伟松（江苏理工学院）、邓向玲（南开大学）、胡志刚（广东省委党校）、刘飞（中央党校）、魏良钰（浙江大学）、张贵红（中国科技大学）、刘临达（中南大学）、高健康（中山大学）、朱雯琤（东南大学）、李涛（中国社会学院大学）、陈越骅（浙江大学）、王晓朝（中山大学）、罗勇（中山大学）、梁中和（四川大学）、花威（湖南大学）、杨小刚（中山大学）、齐飞智（陕西师范大学）、崔延强（西南大学）、裴延宇（上海社会科学院）、葛天勤（东南大学）、曹青云（云南大学）、李涛（中国社会科学院大学）、夏天成（安徽大学）、林早（贵州大学）、谢一玭（大连理工大学）、罗兴刚（东北师范大学）、武小西（东南大学）、张羽佳（中国社会科学院）、黄水石（中央美术学院）、杨之林（大连海事大学）、许欢（中国海洋大学）、覃万历（中山大学）、崔延强（西南大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/vYfXF9GPGvi5LOKl5wOFnQ</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1599,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1775,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B99913D-A3A8-4418-AE6B-B8A40D3CEF27}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4168,7 +4311,139 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="C52" s="1"/>
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44277</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E52" t="s">
+        <v>346</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>352</v>
+      </c>
+      <c r="B53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44275</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E53" t="s">
+        <v>354</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44280</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E54" t="s">
+        <v>365</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>369</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4179,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49DD84-901B-4A31-B34D-68CD70389508}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4469,6 +4744,61 @@
         <v>300</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44274</v>
+      </c>
+      <c r="C14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F15" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J15" t="s">
+        <v>377</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/哲学讲座.xlsx
+++ b/哲学讲座.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Relay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72758FA-CE8F-4CC0-840B-0EEB7FE478A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79F757-8D73-4F9A-8060-9FF84D874821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="1740" windowWidth="19920" windowHeight="8628" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
+    <workbookView xWindow="648" yWindow="0" windowWidth="19920" windowHeight="10224" activeTab="1" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="733">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,10 +659,6 @@
   </si>
   <si>
     <t>老子研究会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承办</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1521,12 +1517,1374 @@
   <si>
     <t>https://mp.weixin.qq.com/s/vYfXF9GPGvi5LOKl5wOFnQ</t>
   </si>
+  <si>
+    <t>外国哲学研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张伟（张任之）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“理性”被视为启蒙时代的最重要特征。启蒙哲学家们大多都对理性有所阐发。然而，究竟如何理解“理性”？启蒙哲学家们却有着不尽一致的理解。深入到德国启蒙哲学的背景中去，人们可以发现，对“常识理性”的诉诸，是当时代哲学家们最重要的共识，而康德藉对“常识理性”的批判和检讨，展开了他的批判哲学，也构成了德国启蒙的自我反思。厘清“常识理性”与“启蒙理性”（“批判理性”）的关系，成为德国启蒙哲学的核心议题。
+康德本人将“常识理性”喻为“试金石”（Probirstein），将“启蒙理性”称为“指南针”（Kompaß），这在根本上何谓？康德与其他启蒙哲学家的关系如何？以及，康德对于整个德国启蒙的贡献何在？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”试金石“与”指南针“——德国启蒙时代的”理性“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/QQii9MoMcX3P8fJLeoyTVg</t>
+  </si>
+  <si>
+    <t>韩水法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>524 714 752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meeting.tencent.com/l/WAWeS96yKDQS</t>
+  </si>
+  <si>
+    <t>“心性与道体”学术研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈少明、张志强、丁耘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李猛、吴飞、杨立华、唐文明、方向红、蔡祥元、韩骁、雷思温、吴增定、庄振华、李为学、徐逸飞、赵金刚、王鑫、刘伟、周展安、孟琢、张程业、李云飞、苏杭、王庆节、李兰芬、陈建洪、李长春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xNXII6_lwEwj7etDsHW41g</t>
+  </si>
+  <si>
+    <t>Anton Freund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well ordering principles and a uniform Kruskal theorem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well ordering principles are statements of the form ``F(X) is a well order for any well order X", where F is a transformation of linear orders (usually computable). They connect several areas of mathematical logic, notably ordinal analysis, computability theory and reverse mathematics. In this talk, I introduce the area and present recent work with Michael Rathjen and Andreas Weiermann (arXiv:2001.06380): We have investigated the astonishing meta-mathematical properties of a uniform Kruskal theorem, which extends the original theorem from trees to general recursive data types.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/x6tw-lNHbcs78bj7XUrp8A</t>
+  </si>
+  <si>
+    <t>TU Darmstadt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logic Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>678 2616 2829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yue Yang（新加坡国立大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“南溟中国哲学讲堂”第二十九讲:行动与责任——老子哲学中“为”的问题及其思想展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶树勋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老子的思想主张容易给人消极避事、不切人伦的印象，这在很大程度上源于作为其思想标签的“无为”。以往已有不少研究者着力澄清“无为”的所指，这为进一步考察其情实提供了条件。问题的要害之处在于，“无为”是老子在“为”（行动）的问题上进行多方思考之后所下结论的一个部分，当关注点从作为部分结论的“无为”转向作为问题本身的“为”之时，那些蕴含在“无为”标签下的老子关于人事行为问题的种种独特思考，将会陆续涌现出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/rAF_6om9f-1kkpr4qRiU3Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南开大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学珠海校区海琴六号哲学系（珠海）A631会议室</t>
+  </si>
+  <si>
+    <t>方向红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为何“长女”“寡发”“多白眼”——对《周易》分类方法的现象学考察与反思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《说卦传》云，巽为长女，为寡发，为多白眼。难道说“长女”“寡发”“多白眼”属于同一类别？！这是一种怎样的分类模式？背后依托的是什么样的思维方式？本讲座运用现象学的方法，重新激活远古的分类经验并对上述问题作出另类回答。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Z7ijMDnqBdPA39qmCNp_xw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈少明（中山大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡昌堂801室</t>
+  </si>
+  <si>
+    <t>王阳明四民异业同道新解——兼论《节庵方公墓表》一段罕为人知的因缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈立胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡昌堂801室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性气质的人类学研究
+——以大卫·吉尔默的《发明男性气概》为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隋红升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在男性气质研究领域，人类学以其对民间文化扎实的田野调查而做出了重大贡献。其中，大卫·吉尔默的文化人类学著作Manhood in the Making 更是男性气质研究领域所无法绕过的，该作借助雄厚的人类学资料，审视男性气质在全球范围内存在的文化基础和表现形态。中国学界对该作尚没有给予足够重视。不过值得欣慰的是，该作今年二月在浙江大学出版社以《发明男性气概》为名出版。此书在各界强调提升中国男孩子阳刚之气之际出版可谓正逢其时。本讲座将以此书为对象，探究文化人类学家男性气质研究的人文视野。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/qXVPeTKu2SVPtlynqYZsDQ</t>
+  </si>
+  <si>
+    <t>外国语学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学紫金港校区人文大楼613室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能会忸怩吗？</t>
+  </si>
+  <si>
+    <t>在中西思想传统中，忸怩都是一种极为特殊且有趣的情感。人们往往将之视为人类经验结构中的本质要素，或者说构成人之为人的根本，“无羞恶之心，非人也”。当前人工智能已经发展到非常高的程度，但人工智能会忸怩吗？忸怩可以成为人与人工智能的本质区别吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/mGTCuN7P4SdnbV5fKx7mcQ</t>
+  </si>
+  <si>
+    <t>陈嘉明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈瑞球楼121教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎孟伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从实践哲学的两个维度看马克思实践哲学与黑格尔实践哲学的根本区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/nWvFH5sfhx4LcOapN5FfCw</t>
+  </si>
+  <si>
+    <t>马克思主义学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马万东（南方医科大学副教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐长福（中山大学教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学哲学系 锡昌堂420教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学实践哲学研究中心、中山大学马克思主义哲学与中国现代化研究所、中山大学哲学系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马天俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐长福、王南湜（南开大学）、吴晓明（复旦大学）、何萍（武汉大学）、樊和平（东南大学）、郑永流（中国政法大学）、段忠桥（中国人民大学）、阎孟伟（南开大学）、姚大志（吉林大学）、箫诗美（湖北大学）、葛洪义（浙江大学）、陈立新（华东师范大学）、赵景来（《天津社会科学》）、杨学功（北京大学）、夏莹（清华大学）、吴猛（复旦大学）、钟明华（中山大学）、王金林（复旦大学）、文兵（中国政法大学）、尹树广（华南师范大学）、韩志伟（吉林大学）、罗骞（中国人民大学）、李志（武汉大学）、程广云（首都师范大学）、张双利（复旦大学）、黄其洪（西南大学）、朱学平（西南政法大学）、刘敬东（清华大学）、汪行福（复旦大学）、刘怀玉（南京大学）、许斗斗（华侨大学）、应奇（华东师范大学）、向玉乔（湖南师范大学）、黄慧珍（《哲学研究》）、丁三东（湖南大学）、马万东（南方医科大学）、祁涛（复旦大学）、王兴赛（中山大学）、李佃来、于奇智（华南师范大学）、赵玉兰（中国人民大学）、张守奎（深圳大学）、夏钊（南开大学）、凌菲霞（中山大学）、周阳（北京师范大学）、李逸超（中山大学）、叔贵峰（辽宁大学）、庄振华（陕西师范大学）、刘宇（西北大学）、张添翼（安徽师范大学）、方敏（安徽师范大学）、覃万历（中山大学）、王时中（南开大学）、刘贵祥（大连理工大学）、陈飞（重庆大学）、赵映香（大理大学）、杨杰（广州市社会科学院）、陈士聪（东北师范大学）、王福民（华侨大学）、谭群玉（中山大学）、王国坛（辽宁大学）、王代月（清华大学）、刘增明（国防科技大学）、王兴辉（中国社会科学院大学）、马正平（四川师范大学）、李宗贵（中山大学）、田毅松（北京师范大学）、黄素珍（上海师范大学）、涂良川（华南师范大学）、周爱民（同济大学）、林钊（中山大学）、乔戈（上海科技大学）、胡志刚（中共广东省委党校）、田书峰（中山大学）、王思远（黑龙江大庆干部学院）、李育书（上海市委党校）、方珏（中山大学）、吴育林（中山大学）、龙霞（中山大学）、刘立东（辽宁大学）、荣伟杰（中山大学）、江璐（中山大学）、郑珊珊（《东南学术》）、杨沛丰（暨南大学）、黄钰洲（中国社会科学院大学）、黄学胜（中山大学）、周宏胤（南开大学）、郭春明（黑龙江大学）、陈长安（中山大学）、林福山（玉林师范学院）、孙子豪（清华大学）、田明孝（《浙江学刊》）、周智臻（南开大学）、王泽宇（中山大学）、李科政（《道德与文明》）、刘畅（中山大学）、李敏睿（中山大学）、崔琳菲（清华大学）、杨洁（中山大学）、颜冲（《社会科学研究》）、曹康莉（中山大学）、谭群玉、徐长福、李萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王阳明究竟说了什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史上，王阳明是个神奇人物，他的心学既产生了广泛而深远的社会影响，也曾受到严厉的学术批评。近年来，阳明心学再次成为一大显学，唤起学术界以及社会各界的浓厚兴趣。作为一种意义完整的哲学体系，阳明心学并非常识，但确乎对人的现实生活具有实践上的指导意义。本次讲座将讨论阳明心学的基本内容和逻辑建构，侧重解读大家耳熟能详的“心即理”、“知行合一”、“致良知”等问题，以更进一步了解阳明心学的精妙之处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/V4XD2YJO5quwUbyNHleFqA</t>
+  </si>
+  <si>
+    <t>823 9101 4439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪朝辉（美国福坦莫大学历史学教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿多诺对海德格尔存在论的批判及其启示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德勒兹眼中的马克思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字资本主义的研究与未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9LeDXfwBDBxU2TbLN2MuUQ</t>
+  </si>
+  <si>
+    <t>赵凯荣（武汉大学哲学学院教授）、赵士发（武汉大学哲学学院教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学历史学院中庭二会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛广洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思主义哲学中国化的理论阐释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/8ndLD7KvUafU9uni_FGsJw</t>
+  </si>
+  <si>
+    <t>中共中央党校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵士发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学哲学学院振华楼B107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“贤能政治及其批评者”——比较政治哲学工作坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/4Srx4qxPvMpRxx0FLAgbXw</t>
+  </si>
+  <si>
+    <t>陈建洪（中山大学珠海）、陈乔见（中山大学）、方旭东（华东师范大学）、廖晓炜（华中科技大学）、王立（中国人民大学）、谢晓东（厦门大学）、朱佳峰（中山大学）、陈江进（武汉大学）、陈肖生（南京大学）、惠春寿（华东师范大学）、李勇（武汉大学）、吴根友（武汉大学）、叶金州（华中科技大学）、白彤东（复旦大学）、贝淡宁（山东大学）、汪沛（复旦大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“剧场隐喻”中被忽视的“第三者”：马克思社会科学建构之关窍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王南湜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王南湜，1953年生，陕西凤翔人，南开大学哲学院教授、博士生导师。主要研究领域为当代马克思主义哲学，近年来主要关注重新理解马克思主义哲学与德国古典哲学的关系，以及中国哲学的现代重建等问题。撰有专著《人类活动论导引》、《从领域合一到领域分离》、《社会哲学》、《复调文化时代的来临》、《后主体性哲学的视域》、《追寻哲学的精神》、《辩证法：从理论逻辑到实践智慧》、《中国哲学精神重建之路》等十余种，另发表学术论文百余篇。著作曾获国家和省部级多项奖励。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/LanfAARS2M6TFDrN6M_hkA</t>
+  </si>
+  <si>
+    <t>马天俊（中山大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡昌堂420室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁耘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《论语·学而》新释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁耘，复旦大学哲学学院教授，博士生导师。主要研究领域为现象学、德国哲学、古希腊哲学、比较哲学及政治思想史。近期研究重点为形而上学传统的会通。著有《道体学引论》、《儒家与启蒙》等。译有海德格尔《现象学之基本问题》。曾获上海市优秀青年教师、复旦大学十佳教师、复旦大学通识教育首届年度教师等荣誉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/1u4HuGKS-C8ssuSU_c6XFg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学哲学系锡昌堂515室</t>
+  </si>
+  <si>
+    <t>西安交大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁四新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为中国哲学关键词的“性”概念的生成及其早期论域的开展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“性”概念是在天命论和宇宙生成论的思想背景下产生出来的，它联系着“天命”和“生命体”的双方。其一，“性”概念的提出，是为了追问生命体之所以如此及在其自身之本原的问题。它是一在己的、内在的且潜在的本原和质体。其二，“性”来源于“天命”，是“天命”的下落和转化，而人物禀受于己身之中。“天命”与“性”虽有位格的不同，但其实体并无二致。其三，在“天生百物，人为贵”的命题中，古人很早即认识到，人物在其天赋之“性”中已禀受了区别彼此的类本质。孟子进一步辨明此义，认为人性不同于禽兽之性，故曰人性善。其四，“性”概念正式形成于春秋末期，而将“性”同时理解为“天命”的下降、转化和赋予，这很可能是孔子的思想贡献。其五，性命论、心性论、性情论、人性善恶论和人性修养论是“性”概念的相关论域，它们产生很早。其六，郭店简《性自命出》建立了一个由天、命、性、情、心、道、教和仁、义、礼、乐等概念组成的思想系统，其意义十分重大。其七，不同的“人性”概念会影响诸子对于人性善恶的判断及其修养方法的提出。人性善恶的辩论几乎贯穿于春秋末期以来中国古代思想史。其八，子思子的“尽性”说和孟子的“尽心”说是先秦人性修养论的精华。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/kCqh1Ku8tg5fZBQ1zruAyw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>461 693 8178</t>
+  </si>
+  <si>
+    <t>龚建平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴晓明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯物史观与辩证法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴晓明，复旦大学哲学学院教授、博士生导师。兼任国务院学科评议组（哲学）成员，教育部教学指导委员会副主任委员，上海市哲学会会长等职。研究专长为马克思主义哲学史、科学哲学和比较哲学。目前特别致力于研究马克思哲学的当代意义和本体论问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/s9bVM0IJBb1a8nxHbsOydA</t>
+  </si>
+  <si>
+    <t>李萍（中山大学教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学哲学系 锡昌堂515室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息方式与伦理世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊和平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/tRWKNquFQK0Tv1vOjZM4NQ</t>
+  </si>
+  <si>
+    <t>东南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊和平，笔名樊浩。国家重大人才工程入选者；东南大学教授，东南大学学术委员会副主任，人文社会科学学部主任；北京大学世界伦理学中心副主任，资深研究员；英国牛津大学高级访问学者，伦敦国王学院访问教授。1992年被破格晋升为教授，成为当时全国最年轻的哲学伦理学教授。国家高层次人才特殊支持计划入选者；教育部社会科学委员会哲学学部委员；教育部哲学教学指导委员会副主任：中宣部“四个一批”人才暨“全国文化名家”。主要研究领域为伦理学，兼修精神哲学、法哲学、文化学等。出版个人独立专著14部，合著多部。在《中国社会科学》等独立发表论文280多篇，主要代表作为独立专著“中国伦理精神三部曲”和“道德形而上学三部曲”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱刚（中山大学教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思主义哲学中国化与百年中国话语构建</t>
+  </si>
+  <si>
+    <t>北京师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI推理：30年沉寂，孕育着新生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ubD6Kh3Bn9cDqZxMgPq0Dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702 585 715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前主楼A803室</t>
+  </si>
+  <si>
+    <t>段忠桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思对洛克财产权理论的定性与继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/x9AFjh5L_q8pTcWKLm986Q</t>
+  </si>
+  <si>
+    <t>龙霞（副教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟明华（教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>府建明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从论学到经学——魏晋般若学的矛盾与展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本讲座通过对般若中观学的历史梳理，分析了般若学从义学形态向经学形态的转变过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/0Dnw48LHChKuXct6u_5Lnw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄永锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南光一一楼会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《远游》的哲学解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管国兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《远游》蕴含了“进德修业”的哲学思想，进德要主忠信，修业要为万世后代立诚。《远游》告诉我们，在人生修行中，要注重内心修炼，游外弘内，执两用中，找寻本体之乐，以达适性逍遥。由《远游》可见，屈原是一个明体达用的哲人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/nSLLQz6EeUx8cZMXADXu6g</t>
+  </si>
+  <si>
+    <t>人文学院兼职教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《资本论》的二元世界观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《资本论》学说不是哲学，但预设世界观，而且是二元的：变形论[原子论]强调不能无中生有，化身论[道成肉身]却正是无中生有。二者在哲学上势不两立，尽管在实践上可能水乳交融。就此而言，从《资本论》不能萃取出融贯的哲学。《资本论》是后哲学的，作者的思想也是后哲学的。推求个中缘故，则需探讨前哲学的世界观、哲学、后哲学的新世界观，重勘哲学与实践的关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/dKvNvNskNaxIRzXoMkh76g</t>
+  </si>
+  <si>
+    <t>李义天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代美德伦理学的行动理论：误解与回应</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/SFSvvDqagm3Ku4OZs9fhtA</t>
+  </si>
+  <si>
+    <t>陈江进，葛四友，李勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学振华楼哲学学院B214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学第八届国际交叉学科论坛哲学学院分论坛——第三场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窦飞（图宾根大学博士），周浩（巴黎第一大学博士）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“游艺·致美”系列美育讲座——汤显祖笔下杜丽娘的生存场域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹元江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/OI6mz6I11fCamFBsf_Sauw</t>
+  </si>
+  <si>
+    <t>美学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议室107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗骞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由概念在马克思思想中的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次讲座将结合马克思主义理论和实践中对自由概念及其地位的误解，揭示自由概念在马克思思想发展和理论逻辑中的核心位置，从理论上指认将人的全面自由发展作为根本宗旨的马克思主义是对现代自由理论的扬弃而不是否定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5_7QmqMAMJu1XMD__6HLCg</t>
+  </si>
+  <si>
+    <t>杨松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联兴楼101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈嘉映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识自我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/TAP8clJ1RFDZnWzriBfIfw</t>
+  </si>
+  <si>
+    <t>首都师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵行校区东中院1-109室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖晓华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学的精神，审美的态度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/vYrkY8hltDSYfrVAf35_KQ</t>
+  </si>
+  <si>
+    <t>新华网浙江分公司总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南光一101会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦晓林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央企企业文化的哲学思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Fwrh9BJ_nibJXo7B4WHSNg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电建集团江西装备有限公司党委副书记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题意识：自觉与反思——以制度哲学研究为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主讲人简介：辛鸣，哲学博士，理论经济学博士后，中共中央党校马克思主义学院教授。致力于以哲学视角研究党的理论创新与中国道路的战略创新，主要研究领域为制度哲学、政党政治和社会发展战略。出版学术著作《制度论：关于制度哲学的理论建构》、《道理：中国道路中国说》、《中国道路的哲学自觉》等7部，主编《中南海议题》、《日新：领导干部看中国》、《十九大后党政干部关注的重大理论与现实问题解读》等著作25部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/A1xi0mf8Q6dULOmedn987w</t>
+  </si>
+  <si>
+    <t>臧峰宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国学馆226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵根遍植凭精进——我的哲学学习与研究之路漫谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁四新，男，清华大学哲学系教授，教育部长江学者特聘教授，曾任武汉大学二级教授。1993年厦门大学哲学系本科毕业，1999年武汉大学哲学系博士研究生毕业。现兼任中国周易学会副会长、北京市哲学会副会长、老子学会副会长等。主要研究中国哲学与儒家经学，出版《郭店楚墓竹简思想研究》《郭店楚竹书〈老子〉校注》《楚竹书与汉帛书〈周易〉研究》《先秦哲学探索》《周易溯源与早期易学考论》《中国哲学通史·秦汉卷》等八部著作，多次荣获省部级优秀学术成果。</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/hvf1k5cxSVeaQ_eZti-XEg</t>
+  </si>
+  <si>
+    <t>谢维和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的哲学“红利”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢维和，江西人，厦门大学哲学系本科毕业，哲学学士；厦门大学与南京大学哲学系毕业，哲学硕士；中国社会科学院毕业，哲学博士；清华大学资深教授，曾担任北京师范大学副校长，首都师范大学党委书记，清华大学副校长、教育研究院院长；现兼任国家教育科学规划领导小组成员，中国教育学会副会长，中国高等教育学会学术委员会副主任、教育部高等学校本科教育学专业教学指导委员会主任，等职；主要研究领域包括：教育学原理、教育社会学和高等教育等。出版学术著作十余本，发表学术论文百余篇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/c_EgVMfdbnehcSNEVHkXiw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张文良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本宗教与当代政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张文良，中国人民大学哲学院教授、佛教与宗教学理论研究所副所长、博士生导师，兼任日本印度哲学佛教学会评议员。曾在日本东京大学、创价大学、武藏野大学、国际日本文化研究中心、韩国东国大学、金刚大学做访问学者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5CVoxZ0FnxvWV5Ch-260rg</t>
+  </si>
+  <si>
+    <t>642 441 346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雪松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国学馆228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何理解马克思哲学的“哲学维度”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思哲学的“哲学维度”，是一个需要重新反思的前提性问题。马克思是现代哲学发展中最早提出“非哲学”主张的思想家，如何理解其“非哲学”的主张？如何在其“非哲学”的主张中理解其哲学的维度？其哲学维度的基本表现和内容是什么？等等，都需要我们做出正面的回答和阐释。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/hco0eqmqSENNRg0ecMxx0g</t>
+  </si>
+  <si>
+    <t>吉林大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱菁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最传统•最先锋——昆曲与东方审美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Q8i7rasdBImBulIV0dLkaA</t>
+  </si>
+  <si>
+    <t>萧雁、唐薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学珠海校区海琴六号C103报告厅</t>
+  </si>
+  <si>
+    <t>论普遍性知识的存在性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓普遍知识是指：全人类不同社会文化群体共享的、在任何时间和地点都合理的（即放之四海而皆准的）关于周边世界（社会和自然环境）的概念、信念和看法系统；它包括处理社会群体内外关系的手段；把握自然环境、解决问题和验证信息的方法，以及产生、应用和传播上述系统、手段和方法的流程。根据普遍知识定义，它存在于各不同文化之中（普遍性寓于特殊性之中）。本文试图表明满足上述定义要求的普遍知识是不存在的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/4TcUHjgtNPWDBBEmDDUImQ</t>
+  </si>
+  <si>
+    <t>申祖胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南光一 320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李巍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从类比看人性——理解儒家的一个视角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儒家对人性的讨论，不是诉诸抽象的理论语言，而是直观的类比。其中，相关于结构、运动和声音的类比，揭示了人性作为自然本能的意义；关于生长、制作与培育的类比，揭示了人性作为行动条件的意义。因此将儒家的人性学说称为“人性论”，主要来自研究者对理论语言的偏好，却未必能对儒家论性的思想提供切实说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/o0H2ackQduggHyt11qkLQw</t>
+  </si>
+  <si>
+    <t>华侨大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早期《老子》文本及其文义 、思想的变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/0cnG9XzEDdavFu3NcvBXqw</t>
+  </si>
+  <si>
+    <t>薛子燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门校区F1-401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践侵入知识论辨析</t>
+  </si>
+  <si>
+    <t>传统的知识论纯粹论认为认识概念，尤其是知识、确证、认识理性等规范性认识概念与行动或实践相独立。而新近的实践侵入论则认为确证、知识与行动或实践之间存在着极其紧密的联系，甚至主张诸如行动风险之类的实践因素是确证和知识等规范性认识概念的构成条件之一。实践侵入知识论自21世纪初开始兴起，经过十多年的发展，已逐渐扩展到对知识和确证以外的其他认识概念和认知状态与实践之间关系的研究。本次报告将主要介绍实践侵入知识论中最核心也是最富争议的主张——知识实践侵入论，并对实践侵入知识论的其他可能研究方向做以展望。</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/3Av5q2GXV1PrBrjgOAupsg</t>
+  </si>
+  <si>
+    <t>944 116 378</t>
+  </si>
+  <si>
+    <t>哲学意义上的创造论——晚明《寰有诠》与阿奎那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅谦立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“创造”是一个在西方基督教文明中至关重要，却为东方世界所陌生的概念。晚明时期，随着耶稣会士来华，他们也尝试将“创造”概念引进中国，由此发生文化冲突和交流。在这个进程中，葡萄牙耶稣会士傅汎际（Francisco Furtado）与中国基督徒李之藻（1571 - 1630）撰写《寰有诠》（1628年）第一卷基于阿奎那的思想，从形上学角度阐发哲学意义上的创造论，成功树立了一个思想的高峰。一方面，《寰有诠》系统介绍了“五路”，并着重关注其中蕴含的上帝存在与世界存在之关系；另一方面，《寰有诠》通过多种论证有力地证成了上帝“从虚无中创造”，且其创造绝对自由、不需任何先决条件的道理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/eSvvvDpBWFEPr4Ez2W97XQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨杰（浙江大学博士）、余君芷（浙江大学博士）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈越骅（浙江大学教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金港校区人文大楼305室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯识古学中的心识与心性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅新毅，南京大学哲学系教授，兼任《中华大藏经（汉文部分）·续编》副主编，东方唯识学研究会理事等，主要研究领域为佛教哲学与文献，特别是唯识学、阿毗达磨与因明学研究。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/6HajyZzUJEePl9wuNFFKOA</t>
+  </si>
+  <si>
+    <t>马迎辉（浙江大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学人文大楼613室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年未有之大变局与中华传统文明的转换与发展高端对话会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈霞、冯天瑜、郭齐勇、张志强、王颂、何燕生、李雪涛、吴根友、陈赟、张曦、朱承、程乐松、廖钦彬、赵金刚、景海峰、陈霞、任蜜林、孙劲松、龚隽、游文娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“实在、存在、抽象表示”——逻辑与哲学系列讲座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9VH2tB-bAZ_XKJnji544qg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻良（南京大学教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振华楼B107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_14 Logic Workshop——第14届德尔塔逻辑学工作坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张会永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德与“应当意味着能够”——哲学工作坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/k2ajLT8MOR2wCiXyA14Apw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮航（湖北大学）、黄妍（湖北大学）、叶金州（华中科技大学）、罗鑫（中南财经政法大学）、王成军（中南财经政法大学）、潘磊（武汉大学）、李勇（武汉大学）、陈晓旭（武汉大学）、杨云飞（武汉大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛四友（武汉大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能在论与建构性意识的兴起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗骞,男,贵州安龙人,中国人民大学哲学院教授,博士生导师,牛津大学政治学与国际关系系访问学者,中国人民大学“青年杰出人文学者”。主要研究领域为马克思主义哲学、国外马克思主义和政治哲学,出版学术著作《论马克思的现代性批判及其当代意义》(2007年)《面对存在与超越实存——历史唯物主义的当代阐释》(2014年)《走向建构性政治——历史唯物主义视野中的后现代政治哲学研究》(2014年)《告别思辨本体论——历史唯物主义的存在范畴》(2014年)《超越与自由——能在论的社会历史现象学》(2019)《现代性的存在论批判》（《论马克思的现代性批判及其当代意义》再版，2019)《迎候马克思》（2019)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/yMXAD5zcTtUm7WS9k96Yaw</t>
+  </si>
+  <si>
+    <t>235 391 910</t>
+  </si>
+  <si>
+    <t>陈世珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国学馆228</t>
+  </si>
+  <si>
+    <t>赵汀阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧民主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵汀阳，中国社会科学院学部委员，中国社会科学院哲学研究所研究员。欧洲跨文化研究 欧洲跨文化研究院学术常委（Steering member of Transcultura InstitutEuropean）；美国博古睿研究院资深研究员（Senior fellow of Berggruen Institute）。著有《论可能生活》、《天下体系》、《第一哲学的支点》、《坏世界研究》、《天下的当代性》、《惠此中国》、《四种分叉》、《历史·山水·渔樵》等。外文著作：Alles unter dem himmel (德国)；Tianxia tout sous un meme ciel (法国)；Redefining a philosophy for world governance (英国)；All-under-heaven：the Tianxiasystem for a possible world order (美国)；Un dieu ou tous les dieux (法国，与A. Le Pichon 合著)；Du ciel ala terre (法国，与R. Debray 合著)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/8BrRvahwozpK3EsSdElT5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国社会学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李忠伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义与对象——胡塞尔是弗雷格主义者吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/v2B2W2CH0WvP63oLCdSELA</t>
+  </si>
+  <si>
+    <t>模态知识与想象的限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲座内容：模态知识指对模态命题的知识，如对“意识必然是意向性的”，“有可能完全相同的物理状态却不对应相同的意识状态”这样的命题的知识。Chalmers, Williamson等认为想象能够证成模态命题。但是，关于想象是否以及如何真能提供模态认知所需的证据，有两个困难：1.像维特根斯坦、O’Shaughnessy等认为，想象过于自由和狂野，不受限制，因此不能循规蹈矩地追踪现实与真理。这样也自然不能追踪事物可能和必然的状态。2.想象有时又似乎太过于受限，以至于有些人错把想象的匮乏与无力，当做是必然性的标志。本报告综合一些思想资源，来阐明：想象和其它心智能力，如回忆、感知那样，都是自然的认知品种，它也可以被方法论地驯化，让其为实在和必然性所限制，也能通过经验、训练加以赋能，提升想象力，让其以至于能用于提供模态认知所需的证据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/qGgrzqQfoujl728xtbhDfA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学珠海校区海琴六号哲学系（珠海）A486会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经史与政教——第四届经史传统与中国思想工作坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王堃（中山大学哲学系（珠海））、杨清华（中山大学哲学系）、秦际明（中山大学哲学系（珠海）、刘伟（中山大学哲学系）、孙铁根（外交学院基础部）、马永康（中山大学哲学系）、黄少微（中山大学哲学系）、苏鹏辉（陕西师范大学哲学与政府管理学院）、孙占卿（广州社科院政治法律研究所）、毛朝晖（中山大学哲学系（珠海））、许雪涛（华南师范大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/31cA0eqa9lyfkkWPUjOzfg</t>
+  </si>
+  <si>
+    <t>刘成有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛学与经学的相遇相知</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/OIObVr0-ugYm56WlMlKihg</t>
+  </si>
+  <si>
+    <t>中央民族大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学与宗教学学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州大学北京校友会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张加才（北京语言大学）、陈声柏（兰州大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现象学与心性思想研究中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二届心性哲学专题研讨会：心之体·心之意·心之欲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅新毅（南京大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈畅（同济大学）、蔡祥元（山东大学）、张晓亮（科伦坡大学）、戴道昆（《浙江社会科学》）、盛珂（首都师范大学）、李旭（浙江省社会科学院）、肖雄（湖北大学）、张睿明（兰州大学）、何善蒙（浙江大学）、卢盈华（华东师范大学）、陈群志（江苏师范大学）、赵精兵（西北政法大学）、马迎辉（浙江大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/cnjKktQzyiPj6jiJ0pHuVg</t>
+  </si>
+  <si>
+    <t>爱智哲学讲堂第二十二期："诚"在《中庸》中的地位及其思想内涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李景林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李景林，北京师范大学教授、辅仁国学研究所所长。兼任中华孔子学会副会长、中国哲学史学会副会长、中国政法大学国际儒学院兼职教授、四川大学古籍所兼职教授及《儒藏》学术委员会委员等。在儒学、道家哲学、中国文化等学术领域取得了丰硕成果，出版学术著作多部，在海内外学术刊物上发表学术论文百余篇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/tJXzzgjGbauQAkCOZ7SItw</t>
+  </si>
+  <si>
+    <t>刘成纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>​原真、原位、原境与艺术史的发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/4NyPqVsgKf89DpsgQVcyUA</t>
+  </si>
+  <si>
+    <t>中国艺术研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术哲学与艺术史研究中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>553 949 788</t>
+  </si>
+  <si>
+    <t>“试金石”与“指南针”——德国启蒙时代的“理性“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/yYQpfRmxLd4cV7-mEW6O-w</t>
+  </si>
+  <si>
+    <t>韩水法（北京大学外国哲学研究所）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱清华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海德格尔真理发生的五种方式和人的本真生存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/yMvc0CEgD_3IaV_12uqzQw</t>
+  </si>
+  <si>
+    <t>政法学院哲学系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京师范大学前主楼A803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>646 563 295</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董乐（北京师范大学哲学学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳麓书院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《孟子·公孙丑章句上》讲了一个事例，“今人乍见孺子将入于井，皆有怵惕恻隐之心”，并排除了三个外在原因，“非所以内交于孺子之父母也，非所以要誉于乡党朋友也，非恶其声而然也”，以此来论证“人皆有不忍人之心”。这个心理现象是如此地真切，以致于我们难以否认其存在的可能性。与此相对比，奥古斯丁的意志哲学认为，人在堕落之后失去了意愿善的能力，更失去了行善的能力。如果哲学理论之为自身，必须能够普遍地解释世界，那么我们的问题是，这一意志哲学如何解释上述心理现象，即没有信仰的异教徒是否能够具有真正的德性？在哲学史上，这被称为“异教徒问题”（the Problem of Paganism）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥古斯丁、孟子与“乍见孺子将入于井”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/3ldqsZvgKUBYLEh8dJ7iYQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共管理学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹哲（湖南师范大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文贤庆（湖南师范大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南师范大学公共管理学院415室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵海丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去动力的敏感性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensitivity account of knowledge states that if one knows that p , then were p false, one would not believe that p via M. This account has been highly controversial.I argue that even this purported advantage of sensitivity is merely illusory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Zkj7yA93t10Zw8yFYqpHyg</t>
+  </si>
+  <si>
+    <t>郑辉荣（厦门大学哲学系博士后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南光一 216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要什么样的朋友？——亚里士多德与阿奎那论友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚里士多德与托马斯阿奎那的友谊理论代表了西方伦理与政治思想的两座高峰。亚里士多德以“好人之间的完善友谊”作为公民团结友爱的内核。阿奎那虽然采纳了亚里士多德友谊理论的诸多特质，却以中世纪的核心道德“爱德”转变亚里士多德古典友谊论的内涵。这使得他在汲取古典世俗友谊观念的同时，让中世纪的宗教道德进入到世俗领域，成为后世启蒙运动的重要财富。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ifJ43BUQ_X5CBj9r6TDFAw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海社科院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢盈华（华东师范大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐竹（华东师范大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵行校区冯契学术成就陈列室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子太极解义的哲学建构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/XuV7acxdOT2QgfsLRLCocw</t>
+  </si>
+  <si>
+    <t>中山大学南校园锡昌堂103室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子太极解义的成书过程与文本修订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张卫红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈荣捷与中国哲学研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兰芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子论义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨海文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子论羞恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹青云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚里士多德论通往“努斯”之路：经验归纳还是理智直观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚里士多德认为努斯是科学知识的前提，是不被证明的、恒真的和在认知上优先的第一原理。“人们是如何获取努斯的”是一个重要而难解的问题。亚里士多德学界对这个问题的回答有三条路径：经验归纳、理智直观与辩证法。理智直观的解释认为亚里士多德的知识论是“理性主义的”，因为努斯是从感觉经验中把握本质的先天的理智能力。经验归纳的解释认为亚里士多德的知识论是“经验主义的”，因为我们从对感知和经验的归纳获得第一原理。本文指出亚里士多德的知识论并非“经验主义”或“理性主义”能够刻画的，因为努斯的认识论地位由其本体论意义奠基，获取努斯的认知过程有四个阶段：对感觉的归纳形成经验、提出科学问题、建构证明和确证前提。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/N2OwxmXsVXVDQvZLlwdTtg</t>
+  </si>
+  <si>
+    <t>云南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁振华（华东师范大学哲学系）、张立立（华东师范大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘时工（华东师范大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在否定的事实吗？——一场持续百年的争论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/CIEAeACrHX_4dG8kRLp09A</t>
+  </si>
+  <si>
+    <t>怎么理解存在，就会怎么理解不存在，也就是否定事实。如何理解否定事实，构成了哲学家理解存在的一个障碍。在本讲座中，我们通过体会分析哲学家与否定事实问题搏斗的历程，来了解这个问题的要点和难点。我们也会给出一种解决问题的思路，即“视角实在论”，它将告诉我们理解存在的恰当方式是什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“列维纳斯哲学的中文历险”学术研讨会暨“《列维纳斯文集》翻译与研究”重大项目开题报告会</t>
+  </si>
+  <si>
+    <t>张伟、王恒、田炜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祥龙、钱捷、王恒、孙向晨、杨大春、于奇智、罗志达、文晗、刘晓、郑辟瑞、王嘉君、余君芷、王先耀、周轩宇、张建华、刘文瑾、林华敏、张荔君、朱刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/6A7hQ-SctIEXFKALGpfIdw</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,6 +2914,21 @@
       <name val="Optima-Regular"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF443805"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF9E5741"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1579,7 +2952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1603,6 +2976,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1918,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B99913D-A3A8-4418-AE6B-B8A40D3CEF27}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1932,6 +3314,7 @@
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.77734375" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2521,7 +3904,7 @@
         <v>135</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I13" t="s">
         <v>138</v>
@@ -2571,7 +3954,7 @@
         <v>143</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
         <v>102</v>
@@ -2618,7 +4001,7 @@
         <v>147</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I15" t="s">
         <v>102</v>
@@ -2665,7 +4048,7 @@
         <v>151</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
@@ -2712,7 +4095,7 @@
         <v>154</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I17" t="s">
         <v>155</v>
@@ -2753,16 +4136,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
         <v>165</v>
       </c>
-      <c r="F18" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" t="s">
-        <v>166</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I18" t="s">
         <v>155</v>
@@ -2780,7 +4163,7 @@
         <v>26</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>158</v>
@@ -2800,16 +4183,16 @@
         <v>0.375</v>
       </c>
       <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
         <v>170</v>
       </c>
-      <c r="F19" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" t="s">
-        <v>171</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
@@ -2847,25 +4230,25 @@
         <v>0.625</v>
       </c>
       <c r="E20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
         <v>173</v>
       </c>
-      <c r="F20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" t="s">
-        <v>174</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I20" t="s">
         <v>37</v>
       </c>
       <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>41</v>
@@ -2894,22 +4277,22 @@
         <v>0.625</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>41</v>
@@ -2938,22 +4321,22 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="E22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
         <v>181</v>
       </c>
-      <c r="F22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" t="s">
-        <v>182</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I22" t="s">
         <v>155</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>41</v>
@@ -2982,22 +4365,22 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" t="s">
         <v>185</v>
       </c>
-      <c r="F23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I23" t="s">
-        <v>186</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>41</v>
@@ -3026,25 +4409,25 @@
         <v>0.375</v>
       </c>
       <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
         <v>189</v>
       </c>
-      <c r="F24" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" t="s">
-        <v>190</v>
-      </c>
       <c r="H24" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I24" t="s">
         <v>90</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>41</v>
@@ -3073,22 +4456,22 @@
         <v>0.625</v>
       </c>
       <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
         <v>194</v>
       </c>
-      <c r="F25" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I25" t="s">
         <v>195</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>196</v>
-      </c>
-      <c r="J25" t="s">
-        <v>197</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>40</v>
@@ -3100,7 +4483,7 @@
         <v>26</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>158</v>
@@ -3120,22 +4503,22 @@
         <v>0.625</v>
       </c>
       <c r="E26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" t="s">
         <v>199</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>200</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I26" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>202</v>
-      </c>
-      <c r="J26" t="s">
-        <v>203</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>41</v>
@@ -3147,7 +4530,7 @@
         <v>42</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3164,25 +4547,25 @@
         <v>0.625</v>
       </c>
       <c r="E27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
         <v>207</v>
       </c>
-      <c r="F27" t="s">
-        <v>206</v>
-      </c>
-      <c r="G27" t="s">
-        <v>208</v>
-      </c>
       <c r="H27" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I27" t="s">
         <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>41</v>
@@ -3211,25 +4594,25 @@
         <v>0.625</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
         <v>209</v>
       </c>
-      <c r="G28" t="s">
-        <v>210</v>
-      </c>
       <c r="H28" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I28" t="s">
         <v>102</v>
       </c>
       <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>41</v>
@@ -3238,7 +4621,7 @@
         <v>26</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>158</v>
@@ -3258,19 +4641,19 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" t="s">
         <v>215</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>216</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I29" t="s">
         <v>217</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I29" t="s">
-        <v>218</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -3285,7 +4668,7 @@
         <v>49</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3302,25 +4685,25 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
         <v>221</v>
       </c>
-      <c r="F30" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I30" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>223</v>
       </c>
-      <c r="J30" t="s">
-        <v>224</v>
-      </c>
       <c r="K30" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>41</v>
@@ -3329,7 +4712,7 @@
         <v>26</v>
       </c>
       <c r="Q30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>158</v>
@@ -3349,22 +4732,22 @@
         <v>0.6875</v>
       </c>
       <c r="E31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" t="s">
         <v>227</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>228</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I31" t="s">
         <v>229</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>230</v>
-      </c>
-      <c r="J31" t="s">
-        <v>231</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>41</v>
@@ -3373,7 +4756,7 @@
         <v>26</v>
       </c>
       <c r="Q31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>158</v>
@@ -3393,25 +4776,25 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" t="s">
         <v>233</v>
       </c>
-      <c r="F32" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I32" t="s">
         <v>234</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I32" t="s">
-        <v>235</v>
       </c>
       <c r="J32" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>41</v>
@@ -3420,7 +4803,7 @@
         <v>26</v>
       </c>
       <c r="Q32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>158</v>
@@ -3440,16 +4823,16 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
         <v>237</v>
       </c>
-      <c r="G33" t="s">
-        <v>238</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I33" t="s">
         <v>79</v>
@@ -3458,7 +4841,7 @@
         <v>32</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>41</v>
@@ -3467,7 +4850,7 @@
         <v>26</v>
       </c>
       <c r="Q33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>158</v>
@@ -3487,16 +4870,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" t="s">
         <v>241</v>
       </c>
-      <c r="G34" t="s">
-        <v>242</v>
-      </c>
       <c r="H34" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I34" t="s">
         <v>79</v>
@@ -3511,7 +4894,7 @@
         <v>26</v>
       </c>
       <c r="Q34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>158</v>
@@ -3531,25 +4914,25 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I35" t="s">
         <v>245</v>
       </c>
-      <c r="F35" t="s">
-        <v>244</v>
-      </c>
-      <c r="G35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I35" t="s">
-        <v>246</v>
-      </c>
       <c r="J35" t="s">
         <v>32</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>41</v>
@@ -3561,7 +4944,7 @@
         <v>49</v>
       </c>
       <c r="Q35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3578,19 +4961,19 @@
         <v>0.375</v>
       </c>
       <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" t="s">
+        <v>262</v>
+      </c>
+      <c r="I36" t="s">
         <v>249</v>
-      </c>
-      <c r="F36" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" t="s">
-        <v>263</v>
-      </c>
-      <c r="I36" t="s">
-        <v>250</v>
       </c>
       <c r="J36" t="s">
         <v>32</v>
@@ -3605,13 +4988,13 @@
         <v>47</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>50</v>
@@ -3631,25 +5014,25 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E37" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F37" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" t="s">
+        <v>261</v>
+      </c>
+      <c r="I37" t="s">
         <v>256</v>
       </c>
-      <c r="H37" t="s">
-        <v>262</v>
-      </c>
-      <c r="I37" t="s">
-        <v>257</v>
-      </c>
       <c r="J37" t="s">
         <v>32</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>41</v>
@@ -3658,10 +5041,10 @@
         <v>26</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3678,16 +5061,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" t="s">
         <v>259</v>
       </c>
-      <c r="F38" t="s">
-        <v>258</v>
-      </c>
-      <c r="G38" t="s">
-        <v>260</v>
-      </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J38" t="s">
         <v>32</v>
@@ -3708,7 +5091,7 @@
         <v>42</v>
       </c>
       <c r="R38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3725,19 +5108,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" t="s">
         <v>266</v>
-      </c>
-      <c r="F39" t="s">
-        <v>265</v>
-      </c>
-      <c r="G39" t="s">
-        <v>267</v>
       </c>
       <c r="I39" t="s">
         <v>90</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>40</v>
@@ -3752,7 +5135,7 @@
         <v>49</v>
       </c>
       <c r="P39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q39" t="s">
         <v>42</v>
@@ -3772,19 +5155,19 @@
         <v>0.625</v>
       </c>
       <c r="E40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" t="s">
         <v>271</v>
-      </c>
-      <c r="F40" t="s">
-        <v>270</v>
-      </c>
-      <c r="G40" t="s">
-        <v>272</v>
       </c>
       <c r="I40" t="s">
         <v>155</v>
       </c>
       <c r="J40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>40</v>
@@ -3799,7 +5182,7 @@
         <v>49</v>
       </c>
       <c r="P40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q40" t="s">
         <v>42</v>
@@ -3819,16 +5202,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" t="s">
         <v>275</v>
       </c>
-      <c r="F41" t="s">
-        <v>274</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>276</v>
-      </c>
-      <c r="I41" t="s">
-        <v>277</v>
       </c>
       <c r="J41" t="s">
         <v>32</v>
@@ -3846,7 +5229,7 @@
         <v>49</v>
       </c>
       <c r="P41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q41" t="s">
         <v>42</v>
@@ -3866,16 +5249,16 @@
         <v>0.625</v>
       </c>
       <c r="E42" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="I42" t="s">
         <v>280</v>
       </c>
-      <c r="F42" t="s">
-        <v>279</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>281</v>
-      </c>
-      <c r="J42" t="s">
-        <v>282</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>40</v>
@@ -3890,7 +5273,7 @@
         <v>49</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q42" t="s">
         <v>42</v>
@@ -3910,10 +5293,10 @@
         <v>0.75</v>
       </c>
       <c r="E43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I43" t="s">
         <v>79</v>
@@ -3922,7 +5305,7 @@
         <v>32</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>41</v>
@@ -3931,13 +5314,13 @@
         <v>26</v>
       </c>
       <c r="P43" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q43" t="s">
         <v>289</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>290</v>
-      </c>
-      <c r="R43" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3954,19 +5337,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E44" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" t="s">
+        <v>292</v>
+      </c>
+      <c r="I44" t="s">
         <v>294</v>
       </c>
-      <c r="F44" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" t="s">
-        <v>293</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>295</v>
-      </c>
-      <c r="J44" t="s">
-        <v>296</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>107</v>
@@ -3978,13 +5361,13 @@
         <v>127</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>49</v>
       </c>
       <c r="Q44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4001,13 +5384,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E45" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" t="s">
         <v>302</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>303</v>
-      </c>
-      <c r="H45" t="s">
-        <v>304</v>
       </c>
       <c r="I45" t="s">
         <v>79</v>
@@ -4025,7 +5408,7 @@
         <v>47</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>49</v>
@@ -4045,25 +5428,25 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E46" t="s">
+        <v>305</v>
+      </c>
+      <c r="F46" t="s">
         <v>306</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" t="s">
         <v>308</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>309</v>
       </c>
-      <c r="I46" t="s">
-        <v>310</v>
-      </c>
       <c r="J46" t="s">
         <v>32</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>41</v>
@@ -4072,13 +5455,13 @@
         <v>26</v>
       </c>
       <c r="P46" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q46" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4086,7 +5469,7 @@
         <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C47" s="1">
         <v>44271</v>
@@ -4095,22 +5478,22 @@
         <v>0.75</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I47" t="s">
         <v>155</v>
       </c>
       <c r="J47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>23</v>
@@ -4119,16 +5502,16 @@
         <v>47</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q47" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4145,22 +5528,22 @@
         <v>0.625</v>
       </c>
       <c r="E48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H48" t="s">
         <v>322</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>323</v>
       </c>
-      <c r="I48" t="s">
-        <v>324</v>
-      </c>
       <c r="J48" t="s">
         <v>32</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>41</v>
@@ -4169,13 +5552,13 @@
         <v>26</v>
       </c>
       <c r="P48" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q48" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4195,13 +5578,13 @@
         <v>81</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H49" t="s">
         <v>329</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="H49" t="s">
-        <v>330</v>
       </c>
       <c r="I49" t="s">
         <v>83</v>
@@ -4216,7 +5599,7 @@
         <v>26</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4233,13 +5616,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E50" t="s">
+        <v>331</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="H50" t="s">
         <v>333</v>
-      </c>
-      <c r="H50" t="s">
-        <v>334</v>
       </c>
       <c r="I50" t="s">
         <v>79</v>
@@ -4248,7 +5631,7 @@
         <v>32</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>41</v>
@@ -4257,13 +5640,13 @@
         <v>26</v>
       </c>
       <c r="P50" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q50" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4280,22 +5663,22 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E51" t="s">
+        <v>338</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>341</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>342</v>
       </c>
-      <c r="J51" t="s">
-        <v>343</v>
-      </c>
       <c r="K51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>41</v>
@@ -4304,10 +5687,10 @@
         <v>26</v>
       </c>
       <c r="Q51" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="R51" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4324,19 +5707,19 @@
         <v>0.625</v>
       </c>
       <c r="E52" t="s">
+        <v>345</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>349</v>
-      </c>
       <c r="I52" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>32</v>
@@ -4351,18 +5734,18 @@
         <v>26</v>
       </c>
       <c r="Q52" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
+        <v>351</v>
+      </c>
+      <c r="B53" t="s">
         <v>352</v>
-      </c>
-      <c r="B53" t="s">
-        <v>353</v>
       </c>
       <c r="C53" s="1">
         <v>44275</v>
@@ -4371,25 +5754,25 @@
         <v>0.625</v>
       </c>
       <c r="E53" t="s">
+        <v>353</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="J53" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>41</v>
@@ -4398,12 +5781,12 @@
         <v>26</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -4415,16 +5798,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E54" t="s">
+        <v>364</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>79</v>
@@ -4433,7 +5816,7 @@
         <v>32</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>41</v>
@@ -4442,7 +5825,2820 @@
         <v>26</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15">
+      <c r="A55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" t="s">
+        <v>377</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44281</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E55" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H55" t="s">
+        <v>381</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>382</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44278</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E56" t="s">
+        <v>390</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H56" t="s">
+        <v>393</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44281</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>42</v>
+      </c>
+      <c r="R57" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44279</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>408</v>
+      </c>
+      <c r="R58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44272</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E59" t="s">
+        <v>411</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>408</v>
+      </c>
+      <c r="R59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44279</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E60" t="s">
+        <v>414</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H60" t="s">
+        <v>416</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>287</v>
+      </c>
+      <c r="R60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44279</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E61" t="s">
+        <v>378</v>
+      </c>
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H61" t="s">
+        <v>421</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>422</v>
+      </c>
+      <c r="R61" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44284</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E62" t="s">
+        <v>424</v>
+      </c>
+      <c r="F62" t="s">
+        <v>425</v>
+      </c>
+      <c r="H62" t="s">
+        <v>426</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="R62" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="C63" s="1">
+        <v>44289</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E63" t="s">
+        <v>436</v>
+      </c>
+      <c r="F63" t="s">
+        <v>435</v>
+      </c>
+      <c r="G63" t="s">
+        <v>437</v>
+      </c>
+      <c r="H63" t="s">
+        <v>438</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44283</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E64" t="s">
+        <v>441</v>
+      </c>
+      <c r="F64" t="s">
+        <v>442</v>
+      </c>
+      <c r="H64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P64" t="s">
+        <v>451</v>
+      </c>
+      <c r="R64" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44283</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E65" t="s">
+        <v>444</v>
+      </c>
+      <c r="F65" t="s">
+        <v>445</v>
+      </c>
+      <c r="H65" t="s">
+        <v>450</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O65" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" t="s">
+        <v>451</v>
+      </c>
+      <c r="R65" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44283</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E66" t="s">
+        <v>447</v>
+      </c>
+      <c r="F66" t="s">
+        <v>448</v>
+      </c>
+      <c r="H66" t="s">
+        <v>450</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" t="s">
+        <v>451</v>
+      </c>
+      <c r="R66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44282</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E67" t="s">
+        <v>453</v>
+      </c>
+      <c r="F67" t="s">
+        <v>454</v>
+      </c>
+      <c r="H67" t="s">
+        <v>455</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O67" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>457</v>
+      </c>
+      <c r="R67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44284</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E68" t="s">
+        <v>463</v>
+      </c>
+      <c r="F68" t="s">
+        <v>462</v>
+      </c>
+      <c r="G68" t="s">
+        <v>464</v>
+      </c>
+      <c r="H68" t="s">
+        <v>465</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O68" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>466</v>
+      </c>
+      <c r="R68" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44284</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E69" t="s">
+        <v>468</v>
+      </c>
+      <c r="F69" t="s">
+        <v>469</v>
+      </c>
+      <c r="G69" t="s">
+        <v>470</v>
+      </c>
+      <c r="H69" t="s">
+        <v>471</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O69" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>408</v>
+      </c>
+      <c r="R69" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>473</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44282</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E70" t="s">
+        <v>474</v>
+      </c>
+      <c r="F70" t="s">
+        <v>475</v>
+      </c>
+      <c r="G70" t="s">
+        <v>476</v>
+      </c>
+      <c r="H70" t="s">
+        <v>477</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N70" t="s">
+        <v>478</v>
+      </c>
+      <c r="O70" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44281</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E71" t="s">
+        <v>480</v>
+      </c>
+      <c r="F71" t="s">
+        <v>481</v>
+      </c>
+      <c r="G71" t="s">
+        <v>482</v>
+      </c>
+      <c r="H71" t="s">
+        <v>483</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O71" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>484</v>
+      </c>
+      <c r="R71" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44281</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E72" t="s">
+        <v>487</v>
+      </c>
+      <c r="F72" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" t="s">
+        <v>491</v>
+      </c>
+      <c r="H72" t="s">
+        <v>488</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O72" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>492</v>
+      </c>
+      <c r="R72" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>494</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44283</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E73" t="s">
+        <v>495</v>
+      </c>
+      <c r="F73" t="s">
+        <v>496</v>
+      </c>
+      <c r="H73" t="s">
+        <v>497</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R73" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44280</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E74" t="s">
+        <v>502</v>
+      </c>
+      <c r="F74" t="s">
+        <v>503</v>
+      </c>
+      <c r="H74" t="s">
+        <v>504</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44286</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E75" t="s">
+        <v>507</v>
+      </c>
+      <c r="F75" t="s">
+        <v>508</v>
+      </c>
+      <c r="G75" t="s">
+        <v>509</v>
+      </c>
+      <c r="H75" t="s">
+        <v>510</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="R75" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44286</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E76" t="s">
+        <v>515</v>
+      </c>
+      <c r="F76" t="s">
+        <v>514</v>
+      </c>
+      <c r="G76" t="s">
+        <v>516</v>
+      </c>
+      <c r="H76" t="s">
+        <v>517</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="R76" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44286</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E77" t="s">
+        <v>432</v>
+      </c>
+      <c r="F77" t="s">
+        <v>519</v>
+      </c>
+      <c r="G77" t="s">
+        <v>520</v>
+      </c>
+      <c r="H77" t="s">
+        <v>521</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="R77" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E78" t="s">
+        <v>522</v>
+      </c>
+      <c r="F78" t="s">
+        <v>523</v>
+      </c>
+      <c r="H78" t="s">
+        <v>524</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="R78" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1">
+        <v>44286</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E79" t="s">
+        <v>530</v>
+      </c>
+      <c r="F79" t="s">
+        <v>529</v>
+      </c>
+      <c r="H79" t="s">
+        <v>531</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R79" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>276</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E80" t="s">
+        <v>534</v>
+      </c>
+      <c r="F80" t="s">
+        <v>535</v>
+      </c>
+      <c r="G80" t="s">
+        <v>536</v>
+      </c>
+      <c r="H80" t="s">
+        <v>537</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>538</v>
+      </c>
+      <c r="R80" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="1">
+        <v>44286</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E81" t="s">
+        <v>540</v>
+      </c>
+      <c r="F81" t="s">
+        <v>541</v>
+      </c>
+      <c r="H81" t="s">
+        <v>542</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>422</v>
+      </c>
+      <c r="R81" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E82" t="s">
+        <v>545</v>
+      </c>
+      <c r="F82" t="s">
+        <v>546</v>
+      </c>
+      <c r="H82" t="s">
+        <v>547</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R82" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E83" t="s">
+        <v>550</v>
+      </c>
+      <c r="F83" t="s">
+        <v>551</v>
+      </c>
+      <c r="H83" t="s">
+        <v>552</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R83" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E84" t="s">
+        <v>554</v>
+      </c>
+      <c r="F84" t="s">
+        <v>555</v>
+      </c>
+      <c r="G84" t="s">
+        <v>556</v>
+      </c>
+      <c r="H84" t="s">
+        <v>557</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>558</v>
+      </c>
+      <c r="R84" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E85" t="s">
+        <v>474</v>
+      </c>
+      <c r="F85" t="s">
+        <v>560</v>
+      </c>
+      <c r="G85" t="s">
+        <v>561</v>
+      </c>
+      <c r="H85" t="s">
+        <v>562</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R85" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E86" t="s">
+        <v>563</v>
+      </c>
+      <c r="F86" t="s">
+        <v>564</v>
+      </c>
+      <c r="G86" t="s">
+        <v>565</v>
+      </c>
+      <c r="H86" t="s">
+        <v>566</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R86" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E87" t="s">
+        <v>567</v>
+      </c>
+      <c r="F87" t="s">
+        <v>568</v>
+      </c>
+      <c r="G87" t="s">
+        <v>569</v>
+      </c>
+      <c r="H87" t="s">
+        <v>570</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>572</v>
+      </c>
+      <c r="R87" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E88" t="s">
+        <v>574</v>
+      </c>
+      <c r="F88" t="s">
+        <v>575</v>
+      </c>
+      <c r="G88" t="s">
+        <v>576</v>
+      </c>
+      <c r="H88" t="s">
+        <v>577</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>579</v>
+      </c>
+      <c r="R88" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E89" t="s">
+        <v>582</v>
+      </c>
+      <c r="F89" t="s">
+        <v>580</v>
+      </c>
+      <c r="H89" t="s">
+        <v>581</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>42</v>
+      </c>
+      <c r="R89" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E90" t="s">
+        <v>142</v>
+      </c>
+      <c r="F90" t="s">
+        <v>584</v>
+      </c>
+      <c r="G90" t="s">
+        <v>585</v>
+      </c>
+      <c r="H90" t="s">
+        <v>586</v>
+      </c>
+      <c r="I90" t="s">
+        <v>102</v>
+      </c>
+      <c r="J90" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>587</v>
+      </c>
+      <c r="R90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E91" t="s">
+        <v>589</v>
+      </c>
+      <c r="F91" t="s">
+        <v>590</v>
+      </c>
+      <c r="G91" t="s">
+        <v>591</v>
+      </c>
+      <c r="H91" t="s">
+        <v>592</v>
+      </c>
+      <c r="I91" t="s">
+        <v>102</v>
+      </c>
+      <c r="J91" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>408</v>
+      </c>
+      <c r="R91" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" t="s">
+        <v>593</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E92" t="s">
+        <v>474</v>
+      </c>
+      <c r="F92" t="s">
+        <v>594</v>
+      </c>
+      <c r="H92" t="s">
+        <v>595</v>
+      </c>
+      <c r="I92" t="s">
+        <v>446</v>
+      </c>
+      <c r="J92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>596</v>
+      </c>
+      <c r="R92" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" t="s">
+        <v>449</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="1">
+        <v>44291</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E93" t="s">
+        <v>598</v>
+      </c>
+      <c r="F93" t="s">
+        <v>599</v>
+      </c>
+      <c r="G93" t="s">
+        <v>600</v>
+      </c>
+      <c r="H93" t="s">
+        <v>601</v>
+      </c>
+      <c r="I93" t="s">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N93" t="s">
+        <v>602</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="1">
+        <v>44295</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E94" t="s">
+        <v>604</v>
+      </c>
+      <c r="F94" t="s">
+        <v>603</v>
+      </c>
+      <c r="G94" t="s">
+        <v>605</v>
+      </c>
+      <c r="H94" t="s">
+        <v>606</v>
+      </c>
+      <c r="I94" t="s">
+        <v>102</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="R94" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="1">
+        <v>44295</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E95" t="s">
+        <v>238</v>
+      </c>
+      <c r="F95" t="s">
+        <v>610</v>
+      </c>
+      <c r="G95" t="s">
+        <v>611</v>
+      </c>
+      <c r="H95" t="s">
+        <v>612</v>
+      </c>
+      <c r="I95" t="s">
+        <v>449</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q95" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="R95" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1">
+        <v>44295</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E96" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" t="s">
+        <v>617</v>
+      </c>
+      <c r="H96" t="s">
+        <v>618</v>
+      </c>
+      <c r="I96" t="s">
+        <v>619</v>
+      </c>
+      <c r="J96" t="s">
+        <v>119</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="R96" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1">
+        <v>44295</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E97" t="s">
+        <v>623</v>
+      </c>
+      <c r="F97" t="s">
+        <v>624</v>
+      </c>
+      <c r="H97" t="s">
+        <v>625</v>
+      </c>
+      <c r="I97" t="s">
+        <v>276</v>
+      </c>
+      <c r="J97" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="R97" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>315</v>
+      </c>
+      <c r="C98" s="1">
+        <v>44299</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>534</v>
+      </c>
+      <c r="F98" t="s">
+        <v>628</v>
+      </c>
+      <c r="G98" t="s">
+        <v>629</v>
+      </c>
+      <c r="H98" t="s">
+        <v>630</v>
+      </c>
+      <c r="I98" t="s">
+        <v>155</v>
+      </c>
+      <c r="J98" t="s">
+        <v>315</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N98" t="s">
+        <v>631</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q98" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="R98" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44295</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E99" t="s">
+        <v>634</v>
+      </c>
+      <c r="F99" t="s">
+        <v>635</v>
+      </c>
+      <c r="G99" t="s">
+        <v>636</v>
+      </c>
+      <c r="H99" t="s">
+        <v>637</v>
+      </c>
+      <c r="I99" t="s">
+        <v>638</v>
+      </c>
+      <c r="J99" t="s">
+        <v>267</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="R99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44295</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E100" t="s">
+        <v>639</v>
+      </c>
+      <c r="F100" t="s">
+        <v>640</v>
+      </c>
+      <c r="H100" t="s">
+        <v>641</v>
+      </c>
+      <c r="I100" t="s">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="R100" t="s">
+        <v>472</v>
+      </c>
+      <c r="S100" s="9"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E101" t="s">
+        <v>639</v>
+      </c>
+      <c r="F101" t="s">
+        <v>642</v>
+      </c>
+      <c r="G101" t="s">
+        <v>643</v>
+      </c>
+      <c r="H101" t="s">
+        <v>644</v>
+      </c>
+      <c r="I101" t="s">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q101" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R101" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" t="s">
+        <v>654</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44297</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E102" t="s">
+        <v>649</v>
+      </c>
+      <c r="F102" t="s">
+        <v>650</v>
+      </c>
+      <c r="H102" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" t="s">
+        <v>652</v>
+      </c>
+      <c r="J102" t="s">
+        <v>653</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P102" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" t="s">
+        <v>494</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="1">
+        <v>44297</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E103" t="s">
+        <v>663</v>
+      </c>
+      <c r="F103" t="s">
+        <v>662</v>
+      </c>
+      <c r="G103" t="s">
+        <v>664</v>
+      </c>
+      <c r="H103" t="s">
+        <v>665</v>
+      </c>
+      <c r="I103" t="s">
+        <v>494</v>
+      </c>
+      <c r="J103" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" t="s">
+        <v>669</v>
+      </c>
+      <c r="B104" t="s">
+        <v>670</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E104" t="s">
+        <v>666</v>
+      </c>
+      <c r="F104" t="s">
+        <v>667</v>
+      </c>
+      <c r="H104" t="s">
+        <v>668</v>
+      </c>
+      <c r="I104" t="s">
+        <v>494</v>
+      </c>
+      <c r="J104" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N104" t="s">
+        <v>671</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s">
+        <v>377</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44281</v>
+      </c>
+      <c r="E105" t="s">
+        <v>378</v>
+      </c>
+      <c r="F105" t="s">
+        <v>672</v>
+      </c>
+      <c r="H105" t="s">
+        <v>673</v>
+      </c>
+      <c r="I105" t="s">
+        <v>102</v>
+      </c>
+      <c r="J105" t="s">
+        <v>32</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" t="s">
+        <v>494</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E106" t="s">
+        <v>675</v>
+      </c>
+      <c r="F106" t="s">
+        <v>676</v>
+      </c>
+      <c r="H106" t="s">
+        <v>677</v>
+      </c>
+      <c r="I106" t="s">
+        <v>543</v>
+      </c>
+      <c r="J106" t="s">
+        <v>678</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="O106" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>681</v>
+      </c>
+      <c r="R106" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" t="s">
+        <v>688</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44297</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E107" t="s">
+        <v>684</v>
+      </c>
+      <c r="F107" t="s">
+        <v>686</v>
+      </c>
+      <c r="G107" t="s">
+        <v>685</v>
+      </c>
+      <c r="H107" t="s">
+        <v>687</v>
+      </c>
+      <c r="I107" t="s">
+        <v>682</v>
+      </c>
+      <c r="J107" t="s">
+        <v>683</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N107">
+        <v>608150829</v>
+      </c>
+      <c r="O107" t="s">
+        <v>26</v>
+      </c>
+      <c r="P107" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>690</v>
+      </c>
+      <c r="R107" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" t="s">
+        <v>276</v>
+      </c>
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44301</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E108" t="s">
+        <v>692</v>
+      </c>
+      <c r="F108" t="s">
+        <v>693</v>
+      </c>
+      <c r="G108" t="s">
+        <v>694</v>
+      </c>
+      <c r="H108" t="s">
+        <v>695</v>
+      </c>
+      <c r="I108" t="s">
+        <v>276</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O108" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>696</v>
+      </c>
+      <c r="R108" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44301</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E109" t="s">
+        <v>698</v>
+      </c>
+      <c r="F109" t="s">
+        <v>699</v>
+      </c>
+      <c r="G109" t="s">
+        <v>700</v>
+      </c>
+      <c r="H109" t="s">
+        <v>701</v>
+      </c>
+      <c r="I109" t="s">
+        <v>702</v>
+      </c>
+      <c r="J109" t="s">
+        <v>703</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O109" t="s">
+        <v>26</v>
+      </c>
+      <c r="P109" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>705</v>
+      </c>
+      <c r="R109" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44301</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E110" t="s">
+        <v>707</v>
+      </c>
+      <c r="F110" t="s">
+        <v>708</v>
+      </c>
+      <c r="H110" t="s">
+        <v>709</v>
+      </c>
+      <c r="I110" t="s">
+        <v>446</v>
+      </c>
+      <c r="J110" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O110" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>408</v>
+      </c>
+      <c r="R110" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44302</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E111" t="s">
+        <v>707</v>
+      </c>
+      <c r="F111" t="s">
+        <v>711</v>
+      </c>
+      <c r="H111" t="s">
+        <v>709</v>
+      </c>
+      <c r="I111" t="s">
+        <v>446</v>
+      </c>
+      <c r="J111" t="s">
+        <v>32</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O111" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>712</v>
+      </c>
+      <c r="R111" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44303</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E112" t="s">
+        <v>707</v>
+      </c>
+      <c r="F112" t="s">
+        <v>713</v>
+      </c>
+      <c r="H112" t="s">
+        <v>709</v>
+      </c>
+      <c r="I112" t="s">
+        <v>446</v>
+      </c>
+      <c r="J112" t="s">
+        <v>32</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O112" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>714</v>
+      </c>
+      <c r="R112" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44306</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E113" t="s">
+        <v>707</v>
+      </c>
+      <c r="F113" t="s">
+        <v>715</v>
+      </c>
+      <c r="H113" t="s">
+        <v>709</v>
+      </c>
+      <c r="I113" t="s">
+        <v>446</v>
+      </c>
+      <c r="J113" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O113" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>716</v>
+      </c>
+      <c r="R113" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44307</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E114" t="s">
+        <v>707</v>
+      </c>
+      <c r="F114" t="s">
+        <v>717</v>
+      </c>
+      <c r="H114" t="s">
+        <v>709</v>
+      </c>
+      <c r="I114" t="s">
+        <v>446</v>
+      </c>
+      <c r="J114" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O114" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>349</v>
+      </c>
+      <c r="R114" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44301</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E115" t="s">
+        <v>718</v>
+      </c>
+      <c r="F115" t="s">
+        <v>719</v>
+      </c>
+      <c r="G115" t="s">
+        <v>720</v>
+      </c>
+      <c r="H115" t="s">
+        <v>721</v>
+      </c>
+      <c r="I115" t="s">
+        <v>722</v>
+      </c>
+      <c r="J115" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O115" t="s">
+        <v>26</v>
+      </c>
+      <c r="P115" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>724</v>
+      </c>
+      <c r="R115" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44300</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E116" t="s">
+        <v>725</v>
+      </c>
+      <c r="F116" t="s">
+        <v>726</v>
+      </c>
+      <c r="G116" t="s">
+        <v>728</v>
+      </c>
+      <c r="H116" t="s">
+        <v>727</v>
+      </c>
+      <c r="I116" t="s">
+        <v>102</v>
+      </c>
+      <c r="J116" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O116" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>408</v>
+      </c>
+      <c r="R116" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -4454,10 +8650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49DD84-901B-4A31-B34D-68CD70389508}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4476,9 +8672,6 @@
       <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
       <c r="G1" t="s">
         <v>64</v>
       </c>
@@ -4604,7 +8797,7 @@
         <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
         <v>159</v>
@@ -4624,10 +8817,10 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4641,10 +8834,10 @@
         <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4658,10 +8851,10 @@
         <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4675,10 +8868,10 @@
         <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4692,10 +8885,10 @@
         <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4712,13 +8905,13 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12" t="s">
+        <v>285</v>
+      </c>
+      <c r="J12" t="s">
         <v>284</v>
-      </c>
-      <c r="I12" t="s">
-        <v>286</v>
-      </c>
-      <c r="J12" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4735,13 +8928,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
+        <v>298</v>
+      </c>
+      <c r="I13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J13" t="s">
         <v>299</v>
-      </c>
-      <c r="I13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J13" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4752,19 +8945,19 @@
         <v>44274</v>
       </c>
       <c r="C14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" t="s">
         <v>360</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>361</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" t="s">
         <v>363</v>
-      </c>
-      <c r="J14" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4775,28 +8968,267 @@
         <v>44276</v>
       </c>
       <c r="C15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" t="s">
         <v>370</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>371</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>372</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>373</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>374</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
         <v>376</v>
       </c>
-      <c r="J15" t="s">
-        <v>377</v>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16" t="s">
+        <v>387</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="J16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44283</v>
+      </c>
+      <c r="C17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" t="s">
+        <v>431</v>
+      </c>
+      <c r="G17" t="s">
+        <v>432</v>
+      </c>
+      <c r="H17" t="s">
+        <v>433</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44310</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>459</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44283</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44286</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>527</v>
+      </c>
+      <c r="I20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44295</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>615</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44297</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44296</v>
+      </c>
+      <c r="C23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="I23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J23" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44297</v>
+      </c>
+      <c r="C24" t="s">
+        <v>656</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I24" t="s">
+        <v>660</v>
+      </c>
+      <c r="J24" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44304</v>
+      </c>
+      <c r="C25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>729</v>
+      </c>
+      <c r="G25" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25" t="s">
+        <v>730</v>
+      </c>
+      <c r="I25" t="s">
+        <v>731</v>
+      </c>
+      <c r="J25" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/哲学讲座.xlsx
+++ b/哲学讲座.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Relay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79F757-8D73-4F9A-8060-9FF84D874821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1620EC0A-ACF3-4452-80A7-27ADB03D162E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="648" yWindow="0" windowWidth="19920" windowHeight="10224" activeTab="1" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
+    <workbookView xWindow="11208" yWindow="2784" windowWidth="19920" windowHeight="10224" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="938">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2878,6 +2878,785 @@
   </si>
   <si>
     <t>https://mp.weixin.qq.com/s/6A7hQ-SctIEXFKALGpfIdw</t>
+  </si>
+  <si>
+    <t>桂林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021桂林农园论坛 · 哲学与精神性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈少明（中山大学）、吴重庆（中山大学）、陈赟（华东师范大学）、程乐松（北京大学）、王俊（浙江大学）、张曦（厦门大学）、张伟（中山大学）、朱承（华东师范大学）、倪培民（格兰谷州立大学）、王正（中国社科院）、陈立胜（中山大学）、张昭炜（武汉大学）、殷慧（湖南大学）、李卓（《道德与文明》）、张文义（中山大学社会学与人类学院）、马天俊（中山大学）、马万东（南方医科大学）、唐文明（清华大学）、吴增定（北京大学）、雷思温（中国人民大学）、周展安（上海大学）、韩骁（《哲学研究》）、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/DZsW1RWfYjdTN3ONcEri-g</t>
+  </si>
+  <si>
+    <t>叶斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观念论框架与《沉思集》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《第一哲学沉思集》中确定性的定锚一直以来总是落于我思故我在之中，但是这个路径一直存在着争议。近来对笛卡尔观念论的研究提供了重新思考《沉思集》框架的契机，即是否可能通过观念论搭建一个理解笛卡尔第一哲学的新路径或新方案。借助观念论重构我思论证、上帝存在证明以及外部事物存在证明，我们或许可以找到通往第一哲学的新路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/LddmrBWLuN-mQN_lws68EA</t>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技哲学系</t>
+  </si>
+  <si>
+    <t>钱捷（中山大学哲学系（珠海））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学珠海校区海琴六号A486会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为精神现象之“物”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告从“观物取象”和“心外无物”两个经典论题的分析入手，在实用物与象征物区分的基础上，以纪念品与文物为例，描述人类精神活动的对象化现象，以达致对文化与生活图景的新理解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/s-j8v0kbUPlyffufqM__sQ</t>
+  </si>
+  <si>
+    <t>四平校区逸夫楼1楼报告厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通向世界的中国哲学——“纪念陈荣捷先生诞辰120周年”学术研讨会预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈来（清华大学国学研究院）、张伟（中山大学哲学系）、朱杰人（华东师范大学古籍研究所）、余文锋（开平市委常委）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯达文（中山大学哲学系）、陈来（清华大学国学研究院）、余文锋（开平市委常委）、张伟（中山大学哲学系）、吴震、李兰芬、黎业明、方旭东、张清江、王书毕、景海峰、何俊、郑淑红、周春健、郑泽绵、赵金刚、陈立胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/7NfZnpMa1hJqnNc9cqzIbA</t>
+  </si>
+  <si>
+    <t>罗志达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体表达性及其格式塔——从现象学的观点看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ngBkPZoyWydxLrcZ7MGLMw</t>
+  </si>
+  <si>
+    <t>陈巍（绍兴文理学院心理学系）、苏丽（西安电子科技大学人文学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志伟（西安交通大学人文学院哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>795 272 967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流的社会认知理论对他人之身体持有一种观察性立场，并认为他人身体之于他人心灵乃是某种无意义的、因而是待解释的物理现象。本文认为这是一种过于简化的、并且是植根于对象化立场的解释；与之相对，我们需要对他人身体行为的被给予性模式作更精确的刻画。为此，本文重构了胡塞尔关于他人身体与心灵作为“表达之统一体”的格式塔理论，并进一步分析了梅洛-庞蒂有关身体表达的四个操作性概念，从而揭示出身体表达的亚稳定结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中世纪犹太人的历史认知与释经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以代表性人物为例，介绍中世纪地中海周边地区的、处于基督教和伊斯兰教势力冲突处境中的、不同派别的犹太人对于世界和犹太人历史的认知发展，以及相应的圣经诠释原则和方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Cl1E06FP92aABVOg5qGlTw</t>
+  </si>
+  <si>
+    <t>陈越骅（浙江大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学紫金港校区人文大楼305室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠疫、麻风与天花：权力技术中的鄙民主体性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤明洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福柯在1978年法兰西公学院讲座《安全、领土、人口》中提出西方历史中先后出现并相继并存的三种权力机制：法律机制、规训机制和安全机制。这三种机制体现了知识与权力相互借力的不同方式：规范性（normativité）、标准化（normation）和正常化（normalisation）。正是在此意义上，人类历史上控制鼠疫、麻风和天花这三种传染病的模式描述了西方文明中权力技术发展变化所运用的三种空间、策略和设置。福柯在此追问的是权力与知识之间产生各种关联的实际规则，而不是得到“知识（真理话语）”证成的权力或得到权力“支撑”的“知识（真理话语）”各自本身的正当性。借由与真理的关系，问题转化为被统治者展开别样存在的可能性，而不仅仅是统治者的道德。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《词与物》前传：《雷蒙·鲁塞尔》的语言与认知批判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我思的怀疑灰度与肉体的供认剥夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学哲学学院B214</t>
+  </si>
+  <si>
+    <t>内容提要：福柯在《疯狂史》（1961）中将“笛卡尔时刻”定义为构成古典时期开端的一系列事件，其中笛卡尔的著名论断“但是，什么？那是些疯子”就应该在这样的语境中给予新的哲学思考。而即使抛开被认为是外部考量的社会历史事件，从《指导心灵的原则》（1628）、《谈谈方法》（1637）、《第一哲学沉思集》（1641）到《哲学原理》（1644），笛卡尔的怀疑方法都有着较大的灰度变化。如果再考虑到笛卡尔本人也承认他“每天只有几小时”用于科学思考，“每年只有几小时”用于形而上学思考，我们就会发现，“笛卡尔时刻”实际上是从epimeleia heautou（关照自身）转变到gnôthi seauton（认识你自己）的“柏拉图时刻”的一个现代重现，其中呈现了同一个问题：使主体进入真理的条件还能够拯救主体吗？基督教的苦行和忏悔制度就是这个问题的一个强大注脚和证伪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学哲学学院B301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《词与物》（1966）通过比照16世纪、17-18世纪以及19世纪以来的认知型：“相共（ressemblance）”、“表征（représentation）”和“意指（signification）”，呈现出现代知识构型中同一性语言用法所包含的相对于“客观”现实的根本退出。而这一点，在福柯《雷蒙·鲁塞尔》（1963）中，就已经从对鲁塞尔极端语言游戏的分析中展现出来了。鲁塞尔诗意生产的“手法（procédé）”直接介入语词能指材料，并在所指秩序中先于并支配语词的虚构布局，通过自我加强，这种手法表明没有作为初级语言之镜像真相的二级语言，语言的真相已经由语言完全把握在其本身之中，也就是把握在其无限的増衍之中。这就是福柯所谓“语言的存在论缝隙”：“一个诞生重复的昏暗机器，并由此挖出一个吞没存在的空无，在那里，语词加速追逐事物，而语言则朝着这中心的缺席无限坍塌。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/MFPBHxnPhSXtSyOJgX8cPQ</t>
+  </si>
+  <si>
+    <t>哲学研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世英的”境界“说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/zX4q1YLUsLhA2zr0_0RV6Q</t>
+  </si>
+  <si>
+    <t>哲学系博士后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐美德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛教”十二部经“中的”譬喻“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学振华楼哲学学院B214报告厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙滔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melissa Lane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏拉图《理想国》美好城邦中设置官职了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/BWkFAvkfiuw9T01PhRoqOA</t>
+  </si>
+  <si>
+    <t>普林斯顿大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治学系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun-Hyeok Kwak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何建明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人的信仰和文化与宗教学的重建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/AyaA5bv0KPbz79EYlxiC6A</t>
+  </si>
+  <si>
+    <t>全国老子与道学文化研究会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>468 787 432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王俊淇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑荣辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南光一216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知与理知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白彤东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理知与语言相联系，是人类特有的能力。文字时代开始以后，发展出系统理知：哲学和科学。系统理知可以达乎感知无法伸达的广大领域。在系统理知无所不能的时代，感知何为？</t>
+  </si>
+  <si>
+    <t>理知与语言相联系，是人类特有的能力。文字时代开始以后，发展出系统理知：哲学和科学。系统理知可以达乎感知无法伸达的广大领域。在系统理知无所不能的时代，感知何为？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/XA4M_ZYPpfOVaCXr6GiTtg</t>
+  </si>
+  <si>
+    <t>复旦大学光华楼西主楼2401</t>
+  </si>
+  <si>
+    <t>贝淡宁（山东大学）、白彤东（复旦大学）、吴根友（武汉大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李勇（武汉大学哲学学院教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/3prszqCeunLQBWcflQ2WCQ</t>
+  </si>
+  <si>
+    <t>王珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国的宗教现状与宗教政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/CUBHsa7HS3Qs57Yo9Xp_Wg</t>
+  </si>
+  <si>
+    <t>中央社会主义学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统战理论教研部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教三楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龙云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价关系与Borel归约——逻辑与数学基础系列讲座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在描述性集合论中，Borel归约是一种用来刻画各种等价关系相对复杂性的有用工具。最近几年来，很多逻辑学家研究这一主题，人们已得到很多关于此主题的有趣结论。在此讲座中，将概述这一主题的发展历程：从此领域的基础理论到最近的一些新结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ew95Ig9-ccLiINn2aYCp3g</t>
+  </si>
+  <si>
+    <t>数学系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程勇（武汉大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学哲学学院振华楼B214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡塞尔的现象学的时间理论贯穿于他一生的现象学研究，处于他的现象学大厦的核心部位，是整个现象学中最晦涩的部分。他的现象学的时间理论的发展是与他的整个现象学体系的发展相伴的。比如说早期的静态的（statisch）现象学时间分析与早期的注重静态本质分析的现象学相关联；而晚期的生成的（genetisch）现象学时间分析则与晚期的强调动态生成起源分析的现象学相对应。因此，理解了胡塞尔的现象学时间理论就能对他的整个现象学体系达到一个比较精确的宏观把握。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡塞尔的现象学时间理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/A7Svf2-wGnmbF3O5aOGhbA</t>
+  </si>
+  <si>
+    <t>慕尼黑大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周振权（中山大学哲学系（珠海）博士后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祥龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君子之道始于夫妇——朝向非暴力哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以《中庸》“君子之道，造端乎夫妇”为引导，讨论性爱、亲子关系中的非暴力化哲理，吸收列维纳斯思想，与存在论中的强力倾向分手，展示儒家伦理的和平生活天地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/hn9sVN_mV0X8uG2Pa0zJpA</t>
+  </si>
+  <si>
+    <t>锡昌堂515</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈榆平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿游戏——机器智能定义之争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何为机器智能？以图灵提出的“模仿游戏”定义对人工智能前沿成果进行检验，我们一方面可发现许多成果并不具有图灵所认可的“智能”属性，另一方面“模仿游戏”本身作为标准也似有欠缺。但我们至少可达到这样一种共识：常识推理应当是“机器智能”不可或缺的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ZR5eWhCiSaXIWSXWwRcdQw</t>
+  </si>
+  <si>
+    <t>科学技术哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实：形而上学抑或认知主义？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“什么是事实”与“什么是真理”这个哲学问题和“什么是司法证据”这个法律问题密切相关。根据符合论，真理就是与事实相符合。司法证据的重要构件就是其事实性（客观性）。形而上学的事实观认为，事实在外部世界中，是等待我们去发现和认知的东西，是语句或命题的使真者。这种事实观有一系列严重困难。认知主义的事实观认为，事实是认知主体从世界的母体上撕扯下来的，取决于认知主体的认知意图、认知能力、认知手段和世界中的真实状况，因而是一种认知建构，兼具主观性和客观性。这种认知主义的事实观在司法审判中有重要应用。司法审判的指导原则或许应该是：以程序为中心，以证据为依据，以法律为准绳。</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/hnVmVnb4wMxp7_LniR0_cA</t>
+  </si>
+  <si>
+    <t>461 693 8178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小红（西安交通大学人文学院哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malcolm Forster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is the Current Causal Revolution Complete?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/kkpsHY49VwIKXkA93LbeAg</t>
+  </si>
+  <si>
+    <t>陈勃杭（浙江大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金港校区人文大楼513室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娄林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古典文明研究中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ja3bOrbjOhyjie5jMAb4iw</t>
+  </si>
+  <si>
+    <t>真实的世界成为一则寓言，尼采认为这源于西方的哲学传统，这样的哲学“太阳”消解了世界的存在和人的存在本身，即对彼岸世界的爱与对真正世界的仇恨共同构成了这一则谬误的历史。这也是海德格尔的真理遮蔽之说的来源。尼采致力于还原世界的本相，但他并不期待自己关于真实世界的说法成为一种理论或哲学，否则必然成为这种谬误的另一种形态。这意味着尼采必须采取一种新的表达真理与世界的方式，这就是他的写作不得不充满各种比喻面纱的缘故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼采的面纱与真理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学紫金港西区人文大楼308室</t>
+  </si>
+  <si>
+    <t>林志猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术论文的选题与解题：一个操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学哲学系百人计划研究员，博士生导师，研究方向包括现象学、分析哲学（特别是心灵哲学）、德国哲学（主要是十九世纪中后期德语哲学）和早期现代西方哲学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5SSQ5Sqeb5jeeh8nLY7MjQ</t>
+  </si>
+  <si>
+    <t>金立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学紫金港校区人文大楼107</t>
+  </si>
+  <si>
+    <t>邢冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福柯的新自由主义批判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要：福柯在1979年法兰西学院课程《生命政治的诞生》中，对新自由主义的研究，引发了学术界一定的争议。而基于福柯与马克思的对观，可以对这一问题乃至资本主义批判提供一种新的视角。福柯与马克思的关系实际上颇为紧密。福柯对劳动主体与生命政治的批判，以及福柯的主体理论与无产阶级理论，都可以从对资本主义的批判与变革的视角加以理解。福柯对新自由主义的研究，正是一个经典的例证。福柯尤其区分了政治自由与经济自由的概念，指出新自由主义用经济自由压倒政治自由，其“自由"概念因而具有明显的阶级色彩。福柯自己的特色在于，基于一种断裂性的系谱学，指出新自由主义权力/知识的偶然性与专断性，并且通过对规训、安全配置与新自由主义制造的臣服主体的批判，而尝试寻找一种重建主体性原则的可能。</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/0i9Fr04om32DlR6ikYcgig</t>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this talk I will discuss the question of whether Gödel's incompleteness theorems imply that “the mind cannot be mechanized”. The story begins with Gödel. He argued for a weaker, disjunctive conclusion to the effect that the incompleteness theorems imply that either “the mind cannot be mechanized” or that “there are absolutely undecidable statements.” Since then others -- most notably Lucas and Penrose -- have argued for the stronger conclusion, namely, that the incompleteness theorems imply the first of these two disjuncts -- that “the mind cannot be mechanized”. In the first part of the talk I will sharpen the underlying notions. This will enable us to pull the discussion into a setting where definitive results can be proved. We shall see that (thus formalized) Gödel's disjunction is indeed provable. This then leads to the question: “Which disjunct holds?” I will discuss some recent independence results which show that when (thus formalized) one can show that although the disjunction is provable neither disjunct is provable or refutable. Moreover, the result is robust in that it persists when one strengthens the underlying principles of knowledge. I will conclude that the questions of whether “the mind can be mechanized” or whether “there are absolutely undecidable statements” are themselves good candidates for statements that are “absolutely undecidable”.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peter Koellner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“On the Question of Whether the Mind Can be Mechanized”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/TxaH1n8HLNSzKnLvC2ZnVw</t>
+  </si>
+  <si>
+    <t>哈佛大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>652 9596 6662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典世界中的“兰亭序”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《兰亭序》是事件、文章与字帖的集合体。虽然书法成就其最终意义，但事件与文章的影响是它进入经典世界的条件，而传奇般的出场与皇权的支持则是其传播的重要助力。理解这件存世时间有限但却能名垂千古的作品，要义在于对书法临摹精神内涵的分析。临书不只是原作形的再现，而且是其神的传承。原作与临作之间是一对多的关系。临作不仅让原作的典范性得以现实，同时形成谱系式扩展的传统。原作与作者王羲之的经典地位最终是由临作的品质与数量造成的。《兰亭》帖作为文物，超越一般供瞻仰的价值，系无数临写者与古人直接神交的精神蹊径。因此，即便真迹毁灭，怀疑不断，其作为“斯文”的精神碑石永存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/LmgAqZi-5p3jlOZVD8h9Lg</t>
+  </si>
+  <si>
+    <t>高瑞泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯契学术成就陈列室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间视角与世界哲学：现象学视野下的考察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当代，现象学重新发现和阐释了空间。在现象学视野下，空间是意识构建的场域，是此在的存在境域，是身体的延展，是情感的氛围，进而空间被赋予更为丰富的批判性的价值色彩。我们由此进入了“空间的时代”。与单向度的时间模式不同，差异化的空间模式为我们更为自由多元的生活形式提供了可能。如果以空间视角审视哲学史，我们可以尝试赋予雅斯贝尔斯“世界哲学”构想更为丰富的当代意涵。世界哲学只有以差异化的空间方式呈现，我们才能绘制一幅符合当代特征的跨文化的世界哲学地图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/nBlVvmgCJx4oUvKS-MsCeA</t>
+  </si>
+  <si>
+    <t>张志伟（中国人民大学哲学院教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京大学老化学楼227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《吕西斯》与苏格拉底的友爱之谜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/V3k_HQKvWoAVf7RumhEArA</t>
+  </si>
+  <si>
+    <t>杨小刚（中山大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学哲学系锡昌堂515</t>
+  </si>
+  <si>
+    <t>亚里士多德的解谜（一）：我们和谁交朋友？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚里士多德的解谜（二）：自足的人是否需要朋友？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程炜（北京大学哲学系）、吕纯山（天津外国语大学哲学研究所）、田洁（山东大学哲学系）、江璐（中山大学哲学系）、田书峰（中山大学哲学系）、王纬（复旦大学哲学学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李慧华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理论悖论的弗完全进路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理论悖论是指与语句真假直接相关的语义悖论。令A是这样的一个语句，根据“&lt;A&gt;是真的”和“A”在所有非模糊的语境中是可以互相替换的这一原则，可以定义（一元）谓词“真”。专注于这种相互替换性真方面的研究，有两种主要的进路：弗完全进路和弗协调进路。目前，弗完全进路占主导地位。它在经典真理论的基础上，限制排中律的使用，弱化经典逻辑，采用非经典的三值语言来处理真理论悖论，最终使得形式语言能够一致地包含自身的真谓词。本报告以克里普克的不动点理论为例，来进行真理论悖论的弗完全进路的探讨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/f72hdmT6nZ2MwH8QgwF3Ug</t>
+  </si>
+  <si>
+    <t>北京体育大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>697 563 648</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京师范大学前主楼A809室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘劲杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论整体论与还原论之争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>326 991 032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/z9kML86RxJ8gMuIWm8AtIA</t>
+  </si>
+  <si>
+    <t>温忠麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理测量模型与潜变量分析
+潜在类别分析
+潜变量交互效应分析
+交叉滞后结构的追踪模型
+问卷建模前传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ZTHRwnmqlBPwzQDTF-gt7w</t>
+  </si>
+  <si>
+    <t>计量心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振华楼哲学学院B201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-23，上午、下午，高级统计技术系列讲座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像的反叛——现代艺术的哲学悖论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在人类绘画的漫长历史中，追求图像表现的真实性，是一个长期的艺术创作理想。但是，自19世纪后半期开始，伴随着摄影技术的发展，对图像真实性产生了根本性的怀疑，并且进而颠覆性的创作冲动取代了写实主义的“科学动机”。本讲座将通过解析多位现代艺术大师的代表作品，探讨现代艺术在“图像制作”中的哲学悖论，从而深化对现代艺术的理性解读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5FC7YXNGukV3KfWtQHm1dQ</t>
+  </si>
+  <si>
+    <t>罗筠筠（中山大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林进平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从共产主义道德到马克思主义伦理学建构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/dzTC1CNH2inu1tHl0Gwhwg</t>
+  </si>
+  <si>
+    <t>吴向东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主楼八层A803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史能否假设？——对李约瑟难题的再思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先对历史研究的方法论问题进行简略分析，以美国经济史家福格尔的研究为例，说明“假设历史”其实不失为一种历史研究的有效方法。其次对李约瑟难题的来源和解答进行概述，最后探讨了中国传统科技向现代科技转型的影响因素，认为文化可能是转型的最核心要素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5SXIP2-pO1pgojCTp_eBGA</t>
+  </si>
+  <si>
+    <t>中国科学院大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李佃来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑格尔的哲学遗产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/KG4wnKYbmokeaR94XtKY7Q</t>
+  </si>
+  <si>
+    <t>主楼8层A803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-47vGkRvVL5hqPMG5taAhw</t>
+  </si>
+  <si>
+    <t>Malcolm R. FORSTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘闯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光华楼西主楼2401</t>
+  </si>
+  <si>
+    <t>程炜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体的动力学：亚里士多德与动物运动的图示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/YsOabRQXYRTulTbMqsRcNA</t>
+  </si>
+  <si>
+    <t>333 420 645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕纯山（天津外国语大学）、李科林（中国人民大学）、谭笑（首都师范大学）、尹景旺（首都师范大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱清华（首都师范大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都师范大学北一区文科楼801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3300,10 +4079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B99913D-A3A8-4418-AE6B-B8A40D3CEF27}">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8641,6 +9420,1846 @@
         <v>412</v>
       </c>
     </row>
+    <row r="117" spans="1:18">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E117" t="s">
+        <v>737</v>
+      </c>
+      <c r="F117" t="s">
+        <v>738</v>
+      </c>
+      <c r="G117" t="s">
+        <v>739</v>
+      </c>
+      <c r="H117" t="s">
+        <v>740</v>
+      </c>
+      <c r="I117" t="s">
+        <v>741</v>
+      </c>
+      <c r="J117" t="s">
+        <v>742</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L117" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O117" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>743</v>
+      </c>
+      <c r="R117" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>745</v>
+      </c>
+      <c r="C118" s="1">
+        <v>44303</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="E118" t="s">
+        <v>146</v>
+      </c>
+      <c r="F118" t="s">
+        <v>746</v>
+      </c>
+      <c r="G118" t="s">
+        <v>747</v>
+      </c>
+      <c r="H118" t="s">
+        <v>748</v>
+      </c>
+      <c r="I118" t="s">
+        <v>102</v>
+      </c>
+      <c r="J118" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L118" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O118" t="s">
+        <v>26</v>
+      </c>
+      <c r="R118" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" t="s">
+        <v>473</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="1">
+        <v>44306</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E119" t="s">
+        <v>754</v>
+      </c>
+      <c r="F119" t="s">
+        <v>755</v>
+      </c>
+      <c r="G119" t="s">
+        <v>760</v>
+      </c>
+      <c r="H119" t="s">
+        <v>756</v>
+      </c>
+      <c r="I119" t="s">
+        <v>30</v>
+      </c>
+      <c r="J119" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L119" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M119" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N119" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="O119" t="s">
+        <v>49</v>
+      </c>
+      <c r="P119" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="1">
+        <v>44301</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E120" t="s">
+        <v>761</v>
+      </c>
+      <c r="F120" t="s">
+        <v>762</v>
+      </c>
+      <c r="G120" t="s">
+        <v>763</v>
+      </c>
+      <c r="H120" t="s">
+        <v>764</v>
+      </c>
+      <c r="I120" t="s">
+        <v>102</v>
+      </c>
+      <c r="J120" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O120" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>765</v>
+      </c>
+      <c r="R120" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1">
+        <v>44308</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E121" t="s">
+        <v>768</v>
+      </c>
+      <c r="F121" t="s">
+        <v>767</v>
+      </c>
+      <c r="G121" t="s">
+        <v>769</v>
+      </c>
+      <c r="H121" t="s">
+        <v>776</v>
+      </c>
+      <c r="I121" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121" t="s">
+        <v>777</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O121" t="s">
+        <v>26</v>
+      </c>
+      <c r="R121" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E122" t="s">
+        <v>768</v>
+      </c>
+      <c r="F122" t="s">
+        <v>770</v>
+      </c>
+      <c r="G122" t="s">
+        <v>775</v>
+      </c>
+      <c r="H122" t="s">
+        <v>776</v>
+      </c>
+      <c r="I122" t="s">
+        <v>90</v>
+      </c>
+      <c r="J122" t="s">
+        <v>777</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O122" t="s">
+        <v>26</v>
+      </c>
+      <c r="R122" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="1">
+        <v>44310</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E123" t="s">
+        <v>768</v>
+      </c>
+      <c r="F123" t="s">
+        <v>771</v>
+      </c>
+      <c r="G123" t="s">
+        <v>773</v>
+      </c>
+      <c r="H123" t="s">
+        <v>776</v>
+      </c>
+      <c r="I123" t="s">
+        <v>90</v>
+      </c>
+      <c r="J123" t="s">
+        <v>777</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O123" t="s">
+        <v>26</v>
+      </c>
+      <c r="R123" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="1">
+        <v>44302</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E124" t="s">
+        <v>778</v>
+      </c>
+      <c r="F124" t="s">
+        <v>779</v>
+      </c>
+      <c r="H124" t="s">
+        <v>780</v>
+      </c>
+      <c r="I124" t="s">
+        <v>155</v>
+      </c>
+      <c r="J124" t="s">
+        <v>781</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O124" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>785</v>
+      </c>
+      <c r="R124" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1">
+        <v>44302</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E125" t="s">
+        <v>782</v>
+      </c>
+      <c r="F125" t="s">
+        <v>783</v>
+      </c>
+      <c r="H125" t="s">
+        <v>780</v>
+      </c>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+      <c r="J125" t="s">
+        <v>781</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O125" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>785</v>
+      </c>
+      <c r="R125" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E126" t="s">
+        <v>786</v>
+      </c>
+      <c r="F126" t="s">
+        <v>787</v>
+      </c>
+      <c r="H126" t="s">
+        <v>788</v>
+      </c>
+      <c r="I126" t="s">
+        <v>789</v>
+      </c>
+      <c r="J126" t="s">
+        <v>790</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O126" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>315</v>
+      </c>
+      <c r="C127" s="1">
+        <v>44306</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E127" t="s">
+        <v>792</v>
+      </c>
+      <c r="F127" t="s">
+        <v>793</v>
+      </c>
+      <c r="H127" t="s">
+        <v>794</v>
+      </c>
+      <c r="I127" t="s">
+        <v>795</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N127" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>797</v>
+      </c>
+      <c r="R127" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" t="s">
+        <v>276</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="1">
+        <v>44301</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E128" t="s">
+        <v>692</v>
+      </c>
+      <c r="F128" t="s">
+        <v>693</v>
+      </c>
+      <c r="G128" t="s">
+        <v>694</v>
+      </c>
+      <c r="H128" t="s">
+        <v>695</v>
+      </c>
+      <c r="I128" t="s">
+        <v>276</v>
+      </c>
+      <c r="J128" t="s">
+        <v>32</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>798</v>
+      </c>
+      <c r="R128" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="1">
+        <v>44307</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E129" t="s">
+        <v>540</v>
+      </c>
+      <c r="F129" t="s">
+        <v>800</v>
+      </c>
+      <c r="G129" t="s">
+        <v>803</v>
+      </c>
+      <c r="H129" t="s">
+        <v>804</v>
+      </c>
+      <c r="I129" t="s">
+        <v>543</v>
+      </c>
+      <c r="J129" t="s">
+        <v>32</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>169</v>
+      </c>
+      <c r="R129" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1">
+        <v>44308</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E130" t="s">
+        <v>540</v>
+      </c>
+      <c r="F130" t="s">
+        <v>800</v>
+      </c>
+      <c r="G130" t="s">
+        <v>802</v>
+      </c>
+      <c r="H130" t="s">
+        <v>804</v>
+      </c>
+      <c r="I130" t="s">
+        <v>543</v>
+      </c>
+      <c r="J130" t="s">
+        <v>32</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O130" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>801</v>
+      </c>
+      <c r="R130" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E131" t="s">
+        <v>806</v>
+      </c>
+      <c r="H131" t="s">
+        <v>808</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="1">
+        <v>44302</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E132" t="s">
+        <v>809</v>
+      </c>
+      <c r="F132" t="s">
+        <v>810</v>
+      </c>
+      <c r="H132" t="s">
+        <v>811</v>
+      </c>
+      <c r="I132" t="s">
+        <v>812</v>
+      </c>
+      <c r="J132" t="s">
+        <v>813</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O132" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R132" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="1">
+        <v>44303</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E133" t="s">
+        <v>815</v>
+      </c>
+      <c r="F133" t="s">
+        <v>816</v>
+      </c>
+      <c r="G133" t="s">
+        <v>817</v>
+      </c>
+      <c r="H133" t="s">
+        <v>818</v>
+      </c>
+      <c r="I133" t="s">
+        <v>402</v>
+      </c>
+      <c r="J133" t="s">
+        <v>819</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O133" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>820</v>
+      </c>
+      <c r="R133" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" s="1">
+        <v>44306</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E134" t="s">
+        <v>822</v>
+      </c>
+      <c r="F134" t="s">
+        <v>824</v>
+      </c>
+      <c r="G134" t="s">
+        <v>823</v>
+      </c>
+      <c r="H134" t="s">
+        <v>825</v>
+      </c>
+      <c r="I134" t="s">
+        <v>826</v>
+      </c>
+      <c r="J134" t="s">
+        <v>781</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O134" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>827</v>
+      </c>
+      <c r="R134" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="1">
+        <v>44304</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E135" t="s">
+        <v>828</v>
+      </c>
+      <c r="F135" t="s">
+        <v>829</v>
+      </c>
+      <c r="G135" t="s">
+        <v>830</v>
+      </c>
+      <c r="H135" t="s">
+        <v>831</v>
+      </c>
+      <c r="I135" t="s">
+        <v>217</v>
+      </c>
+      <c r="J135" t="s">
+        <v>32</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O135" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>492</v>
+      </c>
+      <c r="R135" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" s="1">
+        <v>44307</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E136" t="s">
+        <v>833</v>
+      </c>
+      <c r="F136" t="s">
+        <v>834</v>
+      </c>
+      <c r="G136" t="s">
+        <v>835</v>
+      </c>
+      <c r="H136" t="s">
+        <v>836</v>
+      </c>
+      <c r="I136" t="s">
+        <v>102</v>
+      </c>
+      <c r="J136" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O136" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>408</v>
+      </c>
+      <c r="R136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
+      <c r="A137" t="s">
+        <v>473</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" s="1">
+        <v>44310</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E137" t="s">
+        <v>839</v>
+      </c>
+      <c r="F137" t="s">
+        <v>838</v>
+      </c>
+      <c r="G137" t="s">
+        <v>840</v>
+      </c>
+      <c r="H137" t="s">
+        <v>841</v>
+      </c>
+      <c r="I137" t="s">
+        <v>155</v>
+      </c>
+      <c r="J137" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N137" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="O137" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
+      <c r="A138" t="s">
+        <v>79</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E138" t="s">
+        <v>844</v>
+      </c>
+      <c r="F138" t="s">
+        <v>845</v>
+      </c>
+      <c r="H138" t="s">
+        <v>846</v>
+      </c>
+      <c r="I138" t="s">
+        <v>8</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O138" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>847</v>
+      </c>
+      <c r="R138" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
+      <c r="A139" t="s">
+        <v>79</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E139" t="s">
+        <v>849</v>
+      </c>
+      <c r="F139" t="s">
+        <v>853</v>
+      </c>
+      <c r="G139" t="s">
+        <v>852</v>
+      </c>
+      <c r="H139" t="s">
+        <v>851</v>
+      </c>
+      <c r="I139" t="s">
+        <v>155</v>
+      </c>
+      <c r="J139" t="s">
+        <v>850</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O139" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>855</v>
+      </c>
+      <c r="R139" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
+      <c r="A140" t="s">
+        <v>79</v>
+      </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" s="1">
+        <v>44301</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E140" t="s">
+        <v>639</v>
+      </c>
+      <c r="F140" t="s">
+        <v>856</v>
+      </c>
+      <c r="G140" t="s">
+        <v>857</v>
+      </c>
+      <c r="H140" t="s">
+        <v>858</v>
+      </c>
+      <c r="I140" t="s">
+        <v>79</v>
+      </c>
+      <c r="J140" t="s">
+        <v>32</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O140" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>859</v>
+      </c>
+      <c r="R140" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
+      <c r="A141" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="1">
+        <v>44307</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E141" t="s">
+        <v>861</v>
+      </c>
+      <c r="F141" t="s">
+        <v>862</v>
+      </c>
+      <c r="G141" t="s">
+        <v>863</v>
+      </c>
+      <c r="H141" t="s">
+        <v>864</v>
+      </c>
+      <c r="I141" t="s">
+        <v>446</v>
+      </c>
+      <c r="J141" t="s">
+        <v>865</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O141" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R141" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
+      <c r="A142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="1">
+        <v>44307</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E142" t="s">
+        <v>867</v>
+      </c>
+      <c r="F142" t="s">
+        <v>868</v>
+      </c>
+      <c r="G142" t="s">
+        <v>866</v>
+      </c>
+      <c r="H142" t="s">
+        <v>869</v>
+      </c>
+      <c r="I142" t="s">
+        <v>870</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="O142" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
+      <c r="A143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143" t="s">
+        <v>32</v>
+      </c>
+      <c r="C143" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+      <c r="F143" t="s">
+        <v>872</v>
+      </c>
+      <c r="G143" t="s">
+        <v>873</v>
+      </c>
+      <c r="H143" t="s">
+        <v>874</v>
+      </c>
+      <c r="I143" t="s">
+        <v>102</v>
+      </c>
+      <c r="J143" t="s">
+        <v>32</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O143" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>875</v>
+      </c>
+      <c r="R143" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
+      <c r="A144" t="s">
+        <v>217</v>
+      </c>
+      <c r="B144" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E144" t="s">
+        <v>78</v>
+      </c>
+      <c r="F144" t="s">
+        <v>877</v>
+      </c>
+      <c r="G144" t="s">
+        <v>878</v>
+      </c>
+      <c r="H144" t="s">
+        <v>879</v>
+      </c>
+      <c r="I144" t="s">
+        <v>79</v>
+      </c>
+      <c r="J144" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N144">
+        <v>524714752</v>
+      </c>
+      <c r="O144" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>880</v>
+      </c>
+      <c r="R144" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" t="s">
+        <v>102</v>
+      </c>
+      <c r="B145" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="1">
+        <v>44308</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E145" t="s">
+        <v>314</v>
+      </c>
+      <c r="F145" t="s">
+        <v>882</v>
+      </c>
+      <c r="H145" t="s">
+        <v>883</v>
+      </c>
+      <c r="I145" t="s">
+        <v>155</v>
+      </c>
+      <c r="J145" t="s">
+        <v>9</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O145" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R145" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" t="s">
+        <v>102</v>
+      </c>
+      <c r="B146" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" s="1">
+        <v>44308</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E146" t="s">
+        <v>314</v>
+      </c>
+      <c r="F146" t="s">
+        <v>886</v>
+      </c>
+      <c r="H146" t="s">
+        <v>883</v>
+      </c>
+      <c r="I146" t="s">
+        <v>155</v>
+      </c>
+      <c r="J146" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O146" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>884</v>
+      </c>
+      <c r="R146" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E147" t="s">
+        <v>314</v>
+      </c>
+      <c r="F147" t="s">
+        <v>887</v>
+      </c>
+      <c r="H147" t="s">
+        <v>883</v>
+      </c>
+      <c r="I147" t="s">
+        <v>155</v>
+      </c>
+      <c r="J147" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N147">
+        <v>179207032</v>
+      </c>
+      <c r="O147" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P147" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q147" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="R147" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" t="s">
+        <v>494</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E148" t="s">
+        <v>889</v>
+      </c>
+      <c r="F148" t="s">
+        <v>890</v>
+      </c>
+      <c r="G148" t="s">
+        <v>891</v>
+      </c>
+      <c r="H148" t="s">
+        <v>892</v>
+      </c>
+      <c r="I148" t="s">
+        <v>893</v>
+      </c>
+      <c r="J148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="O148" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R148" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" t="s">
+        <v>543</v>
+      </c>
+      <c r="B149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" s="1">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" s="1">
+        <v>44311</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E150" t="s">
+        <v>896</v>
+      </c>
+      <c r="F150" t="s">
+        <v>897</v>
+      </c>
+      <c r="H150" t="s">
+        <v>900</v>
+      </c>
+      <c r="I150" t="s">
+        <v>155</v>
+      </c>
+      <c r="J150" t="s">
+        <v>315</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>899</v>
+      </c>
+      <c r="R150" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1">
+        <v>44308</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E151" t="s">
+        <v>901</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="H151" t="s">
+        <v>903</v>
+      </c>
+      <c r="I151" t="s">
+        <v>323</v>
+      </c>
+      <c r="J151" t="s">
+        <v>904</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R151" t="s">
+        <v>905</v>
+      </c>
+      <c r="S151" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" t="s">
+        <v>102</v>
+      </c>
+      <c r="B152" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E152" t="s">
+        <v>907</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="H152" t="s">
+        <v>910</v>
+      </c>
+      <c r="I152" t="s">
+        <v>446</v>
+      </c>
+      <c r="J152" t="s">
+        <v>32</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>911</v>
+      </c>
+      <c r="R152" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" t="s">
+        <v>494</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="1">
+        <v>44310</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E153" t="s">
+        <v>912</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="H153" t="s">
+        <v>914</v>
+      </c>
+      <c r="I153" t="s">
+        <v>102</v>
+      </c>
+      <c r="J153" t="s">
+        <v>427</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>915</v>
+      </c>
+      <c r="R153" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" t="s">
+        <v>276</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E154" t="s">
+        <v>917</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="H154" t="s">
+        <v>920</v>
+      </c>
+      <c r="I154" t="s">
+        <v>921</v>
+      </c>
+      <c r="J154" t="s">
+        <v>745</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>922</v>
+      </c>
+      <c r="R154" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" t="s">
+        <v>494</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="1">
+        <v>44312</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E155" t="s">
+        <v>480</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="H155" t="s">
+        <v>925</v>
+      </c>
+      <c r="I155" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>915</v>
+      </c>
+      <c r="R155" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="1">
+        <v>44314</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E156" t="s">
+        <v>928</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="H156" t="s">
+        <v>927</v>
+      </c>
+      <c r="I156" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" t="s">
+        <v>9</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>929</v>
+      </c>
+      <c r="R156" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" t="s">
+        <v>543</v>
+      </c>
+      <c r="B157" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="1">
+        <v>44315</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E157" t="s">
+        <v>931</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="H157" t="s">
+        <v>933</v>
+      </c>
+      <c r="I157" t="s">
+        <v>217</v>
+      </c>
+      <c r="J157" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P157" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8650,16 +11269,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49DD84-901B-4A31-B34D-68CD70389508}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9060,6 +11680,9 @@
       <c r="F18" t="s">
         <v>459</v>
       </c>
+      <c r="G18" t="s">
+        <v>923</v>
+      </c>
       <c r="I18" s="5" t="s">
         <v>461</v>
       </c>
@@ -9230,6 +11853,68 @@
       <c r="J25" t="s">
         <v>732</v>
       </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44297</v>
+      </c>
+      <c r="C26" t="s">
+        <v>733</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>734</v>
+      </c>
+      <c r="I26" t="s">
+        <v>735</v>
+      </c>
+      <c r="J26" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44304</v>
+      </c>
+      <c r="C27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>750</v>
+      </c>
+      <c r="G27" t="s">
+        <v>408</v>
+      </c>
+      <c r="H27" t="s">
+        <v>751</v>
+      </c>
+      <c r="I27" t="s">
+        <v>752</v>
+      </c>
+      <c r="J27" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/哲学讲座.xlsx
+++ b/哲学讲座.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Relay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1620EC0A-ACF3-4452-80A7-27ADB03D162E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D7661-5641-4C32-B247-F5A65C659DA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11208" yWindow="2784" windowWidth="19920" windowHeight="10224" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
+    <workbookView xWindow="264" yWindow="0" windowWidth="19920" windowHeight="10224" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1013">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3657,6 +3657,290 @@
   <si>
     <t>首都师范大学北一区文科楼801</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像与隐喻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛宏宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛宏宝，中国人民大学哲学院教授，博士生导师。主要从事现代西方美学、美学理论、中外艺术史论的研究与教学，出版著作有《西方现代美学》（2002）、《现代西方美学史》（2014）、《美学概论》（2005、2007、2016）等，译著《拉康》（1999）、《艺术基础：理论与实践》（2009）、《艺术哲学》（2016）等，发表论文80多篇，研究成果获2项省部级奖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/q0PDOIbuehUf1K9u46Z6WQ</t>
+  </si>
+  <si>
+    <t>916  440  337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李科林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代海强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primitive Normativity and Disposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/I4msMLFeB48MudoxdpqThA</t>
+  </si>
+  <si>
+    <t>564 184 165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前主楼A809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识，与人工意识的可能性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李恒威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李恒威，哲学博士，浙江大学哲学系、语言与认知研究中心教授、博士生导师，主要研究方向为认知科学哲学、心智哲学、意识科学、东方心学，目前担任浙江大学人文学院意识科学与东方传统研究中心主任，浙江大学本科生院教学研究处处长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/rA7tQ2SUqBEOu-vuOmmoWg</t>
+  </si>
+  <si>
+    <t>蔡仲（南京大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛光林楼（哲学系）212室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透过银幕重思爱、死亡与后人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这个被疫情加速到来的“后电影时代”，我们如何来捍卫电影？爱情电影，可谓是银幕上最主流的类型，但也恰恰正是爱情电影，让无数的观影者成为“迷影者”（cinephile）。那么，你有没有思考过这样的问题：我们为什么欣喜于在银幕上“遭遇”爱？爱情电影，跟日常生活中的爱情会有什么根本性不同？这场讲座将告诉你，当你在银幕上遭遇爱，到底发生了一件什么事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/luorx84YtCOJDqqAaAmDbw</t>
+  </si>
+  <si>
+    <t>吴静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行敏楼634-A会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心性现象学及其研究领域和研究方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪梁康，浙江大学文科资深教授，浙江大学哲学系教授，博士生导师，现象学与心性思想研究中心主任。主要研究方向为西方哲学，尤其是近现代哲学和其中的现象学传统，近年来涉及到中西方思想史上的各个最主要的意识哲学（包括心智哲学、心学、唯识学、心理哲学、心性论等）研究传统和研究领域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ePzIObREjaqtYrpKAg133Q</t>
+  </si>
+  <si>
+    <t>浙江大学紫金港校区人文大楼107室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何理解爱因斯坦的“宗教感情”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨学功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本讲座将运用哲学解释学方法，集中阐释爱因斯坦1930年10月在Forum and Century（《论坛和世纪》）第84卷发表的一篇短文《我的信仰》（What I Believe，又译为《我的世界观》）中的如下一段话：“我们所能有的最美好的经验是神秘的经验。它是坚守在真正艺术和真正科学发源地上的基本感情。谁要是体验不到它，谁要是不再有好奇心也不再有惊异感，他就无异于行尸走肉，他的眼睛是迷糊不清的。就是这种神秘的经验——虽然掺杂着恐怖——产生了宗教。我们认识到有某种为我们所不能洞察的东西存在，感觉到那种只能以其最原始的形式为我们所感受到的最深奥的理性和最灿烂的美——正是这种认识和这种情感构成了真正的宗教感情；在这个意义上，而且也只是在这个意义上，我才是一个具有深挚宗教感情的人。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/RcZ1iV4LOs0j8okKFefS6w</t>
+  </si>
+  <si>
+    <t>解读爱因斯坦的价值观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/QJP_sAd0lyRrm8VxcDxEMA</t>
+  </si>
+  <si>
+    <t>许斗斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1-401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人机共存的未来攻略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛鉴桥、陆俏颖、曾毅、李文新、段伟文、王小塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间视角与世界哲学:现象学视野下的考察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当代，现象学重新发现和阐释了空间。在现象学视野下，空间是身体的延展，是意识构建的场域，是此在的本质属性，是共主体性的情境，这是一个“空间的时代”。与单向度的时间模式不同，差异化的空间模式为我们更为自由多元的生活形式提供了可能。如果以空间视角审视哲学史，我们可以尝试赋予雅斯贝尔斯“世界哲学”构想更为丰富的当代意涵。世界哲学只有以差异化的空间方式呈现，我们才能绘制一幅符合当代特征的跨文化的世界哲学地图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/AGQxHG5vrWkSitOZJEz60g</t>
+  </si>
+  <si>
+    <t>中山大学珠海校区海琴六号哲学系（珠海）A486会议室</t>
+  </si>
+  <si>
+    <t>王恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现象学的超越意蕴及其多重面向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在基于第一人称的发生经验和无前提地面向实事本身的现象学那里，不仅有现代先验性的震撼，有来自古希腊的存在风暴，也有让责任和爱呈现的超验之维。换句话说，从直观到给予，基于还原的显现之学，拓展、深化，确切地说真正打开了更是作为可能性的人类经验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/wMS07Qlai6t7A9GaxBQmFg</t>
+  </si>
+  <si>
+    <t>康德的范畴思维：启示与问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德的先验哲学提出了按照规则思维并由此构造对象的思想，它为范畴思维的研究奠定了全新的哲学基础，成为后来包括黑格尔、狄尔泰、胡塞尔等人这方面研究的思想先驱。康德关于范畴的性质、作用的论述对于我们把握认识的性质与方法具有重要的启示作用，如概念的成真条件分析的重要性等。但他的通过形式性的范畴来决定认识内容上的有效性等论述，却产生一些可被质疑的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/s2SkNUQmMoiwm8s2-yGjsA</t>
+  </si>
+  <si>
+    <t>楼巍（浙江大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体社会性的逻辑刻画---逻辑与哲学系列讲座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘奋荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三个臭皮匠凑成一个诸葛亮”、“绿灯行，红灯停”……，这些都是关于群体智慧或群体知识的一种描述。单个主体拥有知识和信念，同时，在与其他主体发生信息交互的时候，不断更新其认知状态。主体之间被各种社会关系连接，周遭的社会环境对主体的认知更新具有十分重要的影响。一个群体的结构性质如何影响该群体认知状态的动态变化？是否存在具有某种特征的群体更容易获得一致的信念？我们关于群体认知概念的推理规律有哪些？本报告介绍最新的社会认知逻辑，采用逻辑模型讨论上面的问题。报告也会讨论社会认知逻辑与社会认识论之间的关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/PS391qYw0aaUyaWiKUcQRA</t>
+  </si>
+  <si>
+    <t>武汉大学振华楼哲学学院B102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“暴力和危险：美国的枪支难题”——武汉大学2021年哲学跨学科工作坊（三）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spencer Case、Peter Finocchiaro、Matt Lutz、Timothy Perrine、陶文佳、叶金州、陈江进、陈晓旭、葛四友、杨云飞、李志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张柯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人与存在之关联—论海德格尔思想“基础问题”的实质含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海德格尔思想的“基础问题”通常被命名为“存在之意义”或“存在之真理”问题，但“存在之意义”或“存在之真理”问题的实质含义又是什么，这一点却很少得到进一步追问。通过深入追问可以看出，“人与存在之关联”或“存在与人之关联”问题乃是海德格尔思想“基础问题”的实质含义。这种关联问题作为真正的基础问题有其隐秘的运作，而且是海德格尔“全部思想未曾明言的意义”，它作为隐秘的根据和动机规定了海德格尔思想的开端与进程。对我们而言，能否觉察到并跨越海德格尔思想“基础问题”的常见命名形式和其实质含义的距离，能否对其实质含义达成真切理解，决定着我们能否克服海德格尔思想的诸多理解难题。更重要的是，一旦对此的觉察和理解开始运作，对海德格尔思想的研究将进入更广阔的领域和境界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Cnm1Bb6H0mhos9r3ZIRcbA</t>
+  </si>
+  <si>
+    <t>贵州大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波斯琐罗亚斯德教与古希腊早期哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆宏燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文社会科学研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/GOEJBG1RugRsavTE3jFbLg</t>
+  </si>
+  <si>
+    <t>北京外国语大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈斯一（北京大学哲学系助理教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静园二院208会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meeting.tencent.com/live/1182163678918119972</t>
+  </si>
+  <si>
+    <t>琐罗亚斯德教是迄今为止世界上最早的人创宗教，以善恶二元的对立斗争为核心教义。根据现有考古证据，琐罗亚斯德教至少早在公元前8世纪就已经在波斯大地上广为传播。其创世学说中的四大元素说，对古希腊早期哲学米利都学派有直接影响；其善恶二元对立斗争的学说也催生了古希腊辩证法哲学的诞生；其创世学说中的“光明天国原型”学说对柏拉图的“理念世界”也有直接影响。本次讲座将从上述角度入手，尝试说明古希腊哲学的灿烂辉煌是其与周边文明互动的结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“知识论+”论文工作坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄远帆（上海交通大学）、滕璐（上海纽约大学）、赖长生（上海交通大学）、王聚（复旦大学）、刘小涛（上海大学）、戴益斌（上海大学）、方红庆（上海财经大学）、徐竹（华东师范大学）、李主斌（上海交通大学）、周祥（上海海事大学）、郁锋（华东师范大学）、周理乾（上海交通大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/zF5No2dPrU8gFk0_EzEYjA</t>
   </si>
 </sst>
 </file>
@@ -4079,16 +4363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B99913D-A3A8-4418-AE6B-B8A40D3CEF27}">
-  <dimension ref="A1:S157"/>
+  <dimension ref="A1:S169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="C112" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.77734375" style="3" customWidth="1"/>
@@ -10881,92 +11165,128 @@
     </row>
     <row r="149" spans="1:19">
       <c r="A149" t="s">
-        <v>543</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="C149" s="1">
-        <v>44315</v>
+        <v>44311</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E149" t="s">
+        <v>896</v>
+      </c>
+      <c r="F149" t="s">
+        <v>897</v>
+      </c>
+      <c r="H149" t="s">
+        <v>900</v>
+      </c>
+      <c r="I149" t="s">
+        <v>155</v>
+      </c>
+      <c r="J149" t="s">
+        <v>315</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>899</v>
+      </c>
+      <c r="R149" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:19">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B150" t="s">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="C150" s="1">
-        <v>44311</v>
+        <v>44308</v>
       </c>
       <c r="D150" s="2">
-        <v>0.75</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E150" t="s">
-        <v>896</v>
-      </c>
-      <c r="F150" t="s">
-        <v>897</v>
+        <v>901</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>902</v>
       </c>
       <c r="H150" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="I150" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="J150" t="s">
-        <v>315</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>837</v>
+        <v>904</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M150" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N150" s="3" t="s">
-        <v>898</v>
+        <v>41</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q150" t="s">
-        <v>899</v>
-      </c>
       <c r="R150" t="s">
-        <v>573</v>
+        <v>905</v>
+      </c>
+      <c r="S150" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="151" spans="1:19">
       <c r="A151" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C151" s="1">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="D151" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="E151" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>902</v>
+        <v>908</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>909</v>
       </c>
       <c r="H151" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="I151" t="s">
-        <v>323</v>
+        <v>446</v>
       </c>
       <c r="J151" t="s">
-        <v>904</v>
+        <v>32</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>41</v>
@@ -10974,46 +11294,43 @@
       <c r="O151" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="Q151" t="s">
+        <v>911</v>
+      </c>
       <c r="R151" t="s">
-        <v>905</v>
-      </c>
-      <c r="S151" t="s">
-        <v>906</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:19">
       <c r="A152" t="s">
+        <v>494</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="1">
+        <v>44310</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E152" t="s">
+        <v>912</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="H152" t="s">
+        <v>914</v>
+      </c>
+      <c r="I152" t="s">
         <v>102</v>
       </c>
-      <c r="B152" t="s">
-        <v>32</v>
-      </c>
-      <c r="C152" s="1">
-        <v>44309</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="E152" t="s">
-        <v>907</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="H152" t="s">
-        <v>910</v>
-      </c>
-      <c r="I152" t="s">
-        <v>446</v>
-      </c>
       <c r="J152" t="s">
-        <v>32</v>
+        <v>427</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>532</v>
+        <v>212</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>41</v>
@@ -11022,42 +11339,45 @@
         <v>26</v>
       </c>
       <c r="Q152" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="R152" t="s">
-        <v>350</v>
+        <v>916</v>
       </c>
     </row>
     <row r="153" spans="1:19">
       <c r="A153" t="s">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C153" s="1">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="D153" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E153" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>913</v>
+        <v>918</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>919</v>
       </c>
       <c r="H153" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="I153" t="s">
-        <v>102</v>
+        <v>921</v>
       </c>
       <c r="J153" t="s">
-        <v>427</v>
+        <v>745</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>212</v>
+        <v>837</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>41</v>
@@ -11066,45 +11386,42 @@
         <v>26</v>
       </c>
       <c r="Q153" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="R153" t="s">
-        <v>916</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="1:19">
       <c r="A154" t="s">
-        <v>276</v>
+        <v>494</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C154" s="1">
-        <v>44309</v>
+        <v>44312</v>
       </c>
       <c r="D154" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="E154" t="s">
-        <v>917</v>
+        <v>480</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>918</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="H154" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="I154" t="s">
-        <v>921</v>
+        <v>8</v>
       </c>
       <c r="J154" t="s">
-        <v>745</v>
+        <v>9</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>837</v>
+        <v>182</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>41</v>
@@ -11113,33 +11430,33 @@
         <v>26</v>
       </c>
       <c r="Q154" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="R154" t="s">
-        <v>588</v>
+        <v>926</v>
       </c>
     </row>
     <row r="155" spans="1:19">
       <c r="A155" t="s">
-        <v>494</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
       </c>
       <c r="C155" s="1">
-        <v>44312</v>
+        <v>44314</v>
       </c>
       <c r="D155" s="2">
-        <v>0.375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E155" t="s">
-        <v>480</v>
+        <v>928</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>924</v>
+        <v>845</v>
       </c>
       <c r="H155" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I155" t="s">
         <v>8</v>
@@ -11157,86 +11474,98 @@
         <v>26</v>
       </c>
       <c r="Q155" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="R155" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="156" spans="1:19">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C156" s="1">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="D156" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E156" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>845</v>
+        <v>932</v>
       </c>
       <c r="H156" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="I156" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="J156" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>182</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q156" t="s">
-        <v>929</v>
-      </c>
-      <c r="R156" t="s">
-        <v>930</v>
+      <c r="P156" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="R156" s="3" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="157" spans="1:19">
       <c r="A157" t="s">
-        <v>543</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="C157" s="1">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="D157" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E157" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>932</v>
+        <v>938</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>940</v>
       </c>
       <c r="H157" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="I157" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="J157" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>182</v>
+        <v>532</v>
       </c>
       <c r="L157" s="3" t="s">
         <v>23</v>
@@ -11245,19 +11574,586 @@
         <v>47</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P157" s="3" t="s">
-        <v>935</v>
-      </c>
       <c r="Q157" s="3" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>937</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
+      <c r="A158" t="s">
+        <v>494</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="1">
+        <v>44316</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E158" t="s">
+        <v>944</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="H158" t="s">
+        <v>946</v>
+      </c>
+      <c r="I158" t="s">
+        <v>494</v>
+      </c>
+      <c r="J158" t="s">
+        <v>9</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R158" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
+      <c r="A159" t="s">
+        <v>449</v>
+      </c>
+      <c r="B159" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="1">
+        <v>44314</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E159" t="s">
+        <v>950</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="H159" t="s">
+        <v>952</v>
+      </c>
+      <c r="I159" t="s">
+        <v>79</v>
+      </c>
+      <c r="J159" t="s">
+        <v>32</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>953</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
+      <c r="A160" t="s">
+        <v>360</v>
+      </c>
+      <c r="B160" t="s">
+        <v>32</v>
+      </c>
+      <c r="C160" s="1">
+        <v>44315</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E160" t="s">
+        <v>955</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="H160" t="s">
+        <v>958</v>
+      </c>
+      <c r="I160" t="s">
+        <v>38</v>
+      </c>
+      <c r="J160" t="s">
+        <v>790</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>959</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
+      <c r="A161" t="s">
+        <v>79</v>
+      </c>
+      <c r="B161" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161" s="1">
+        <v>44316</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E161" t="s">
+        <v>364</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="H161" t="s">
+        <v>963</v>
+      </c>
+      <c r="I161" t="s">
+        <v>79</v>
+      </c>
+      <c r="J161" t="s">
+        <v>32</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>859</v>
+      </c>
+      <c r="R161" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
+      <c r="A162" t="s">
+        <v>276</v>
+      </c>
+      <c r="B162" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" s="1">
+        <v>44316</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E162" t="s">
+        <v>966</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="H162" t="s">
+        <v>968</v>
+      </c>
+      <c r="I162" t="s">
+        <v>217</v>
+      </c>
+      <c r="J162" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>579</v>
+      </c>
+      <c r="R162" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
+      <c r="A163" t="s">
+        <v>593</v>
+      </c>
+      <c r="B163" t="s">
+        <v>32</v>
+      </c>
+      <c r="C163" s="1">
+        <v>44316</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E163" t="s">
+        <v>966</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="H163" t="s">
+        <v>970</v>
+      </c>
+      <c r="I163" t="s">
+        <v>217</v>
+      </c>
+      <c r="J163" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>971</v>
+      </c>
+      <c r="R163" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
+      <c r="A164" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" s="1">
+        <v>44323</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E164" t="s">
+        <v>78</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="H164" t="s">
+        <v>977</v>
+      </c>
+      <c r="I164" t="s">
+        <v>79</v>
+      </c>
+      <c r="J164" t="s">
+        <v>32</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>148</v>
+      </c>
+      <c r="R164" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
+      <c r="A165" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" s="1">
+        <v>44323</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E165" t="s">
+        <v>979</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="H165" t="s">
+        <v>982</v>
+      </c>
+      <c r="I165" t="s">
+        <v>449</v>
+      </c>
+      <c r="J165" t="s">
+        <v>32</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>743</v>
+      </c>
+      <c r="R165" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
+      <c r="A166" t="s">
+        <v>79</v>
+      </c>
+      <c r="B166" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="1">
+        <v>44323</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E166" t="s">
+        <v>422</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="H166" t="s">
+        <v>985</v>
+      </c>
+      <c r="I166" t="s">
+        <v>245</v>
+      </c>
+      <c r="J166" t="s">
+        <v>32</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>986</v>
+      </c>
+      <c r="R166" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
+      <c r="A167" t="s">
+        <v>76</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="1">
+        <v>44323</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E167" t="s">
+        <v>988</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="H167" t="s">
+        <v>990</v>
+      </c>
+      <c r="I167" t="s">
+        <v>446</v>
+      </c>
+      <c r="J167" t="s">
+        <v>32</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>807</v>
+      </c>
+      <c r="R167" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
+      <c r="A168" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" t="s">
+        <v>32</v>
+      </c>
+      <c r="C168" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E168" t="s">
+        <v>995</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="H168" t="s">
+        <v>998</v>
+      </c>
+      <c r="I168" t="s">
+        <v>999</v>
+      </c>
+      <c r="J168" t="s">
+        <v>32</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q168" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="R168" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
+      <c r="A169" t="s">
+        <v>217</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C169" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N169" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R169" s="3" t="s">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -11269,9 +12165,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49DD84-901B-4A31-B34D-68CD70389508}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -11913,8 +12809,73 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44323</v>
+      </c>
+      <c r="D28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" t="s">
+        <v>973</v>
+      </c>
+      <c r="I28" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44323</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>992</v>
+      </c>
+      <c r="G29" t="s">
+        <v>993</v>
+      </c>
+      <c r="I29" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44325</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1012</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/哲学讲座.xlsx
+++ b/哲学讲座.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Relay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D7661-5641-4C32-B247-F5A65C659DA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB520C4E-0B51-49E2-B7B2-91284BDB723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="0" windowWidth="19920" windowHeight="10224" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3F58B8C-38C5-4B3A-A772-A8CE61C6F648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="1292">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3942,12 +3942,1105 @@
   <si>
     <t>https://mp.weixin.qq.com/s/zF5No2dPrU8gFk0_EzEYjA</t>
   </si>
+  <si>
+    <r>
+      <t>Thomas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Szanto</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>集体情绪：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼀个现象学的说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/3RGCFxXiWvX-xT8f9A3Omw</t>
+  </si>
+  <si>
+    <t>丹麦哥本哈根大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体性研究中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://live.bilibili.com/23033826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李忠伟（浙江大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“一位是19世纪俄罗斯的文学巨匠，另一边是20世纪西方马克思主义哲学的重要一系，两者具有怎样的思想关联？本报告试图揭示陀思妥耶夫斯基小说中的理性批判是如何深刻启发自卢卡奇至法兰克福学派、福柯等人的现代性批判的。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/yjvfWmUWV2B8B_-6KX0GqA</t>
+  </si>
+  <si>
+    <t>哲学与社会发展学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀思妥耶夫斯基与社会批判理论</t>
+  </si>
+  <si>
+    <t>708 205 001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭婷（湖南师范大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙保学（湖南师范大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治哲学工作坊第34讲：国际补偿是可能且必要的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kok-Chor TAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/gpY73EwmBRzLwVrMxcc8ow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By the question posed in the title, I mean to examine whether the idea of reparations for past international injustice is philosophically defensible and relevant.  First, how can we talk about international reparations for the injustice of European colonialism (e.g. in Africa and Asia) if either the individual perpetrators or individual victims of this past injustice are no longer present? One might be tempted to say that for this reason, and in this sense, it is not possible to talk about reparations for injustices committed in the distant past. Second, what is the purpose of reparative justice? Is the demand for reparations not made redundant if we take seriously our present obligations of justice? That is, why bring up the past when we can achieve a just global society by attending to the requirements of justice for the here and now?  In this discussion, I will survey these questions and I will suggest that the idea of reparations for past international injustices is both possible and necessary.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾夕法尼亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun-Hyeok Kwak（中山大学哲学系（珠海）教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治哲学作为第一哲学何以可能？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一哲学通常是指形而上学。但从苏格拉底开始，政治哲学就具有了第一哲学的身份。政治哲学作为第一哲学，不仅是古希腊，而且也是近代以来哲学发展的一大特色。政治哲学在马克思哲学中同样占据主干地位，具有第一哲学的重要性。充分认识政治哲学作为第一哲学的身份和特质，对于当代中国哲学新形态的构建，具有重大意义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/omTNdc75lfpgGlt4_0pUnA</t>
+  </si>
+  <si>
+    <t>陈声柏（兰州大学哲学社会学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城关校区观云楼501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑方法论选讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余俊伟，1974年生，中国社会科学院研究生院博士毕业，现任中国人民大学哲学院教授、博士生导师，研究领域为逻辑与形而上学，在《哲学研究》等刊物发表论文多篇，出版了《否定词研究》等2部专著，《哥德尔不完全性定理》等3部译著，《数理逻辑》（合著）等3部教材，先后主持多项国家级省部级课题，多项成果先后获得学校以及中国逻辑学会优秀科研成果优秀奖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xDTlEqJ9TxbEHfGRkguKvw</t>
+  </si>
+  <si>
+    <t>余俊伟</t>
+  </si>
+  <si>
+    <t>405 141 862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律人工智能的前世今生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊明辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为计算机科学的一个分支，法律人工智能的一大目标是制造出能够模仿、拓展和延伸法官、检察官、律师等法律人思维的法律机器人。那么，这种机器人会取代相关法官、检察官和律师吗？这既是一个科学技术问题，又是一个哲学问题，它取决于人工智能的奇点能否到来。有人很乐观，认为2035年人工智能奇点会到来。然而，莫拉维克悖论告诉我们……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/UItvKdX4qP-qSOotcWwBBQ</t>
+  </si>
+  <si>
+    <t>从选择疑难看理性思维的意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董春雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“选择”是世界上最普遍也是最复杂的现象和行为。人们在进行某种选择时应遵循什么样的依据？国人的思维和行为特点有哪些？本讲座纵论古今中外，通过一些相关生动事例的对比分析，阐释理性的基本含义，并引导人们对此进行深刻反思，以启迪未来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/1RlWpB7ovu0texLT2CV9PA</t>
+  </si>
+  <si>
+    <t>如何思考汉语哲学的问题</t>
+  </si>
+  <si>
+    <t>随着这一百多年来对“中国哲学”与“西方哲学”的深入研究，在“汉语世界”中，学者们已经重新触摸到一些在“汉语世界”中的本原性哲学问题，这些哲学问题的提出与表达直接涉及汉语世界的精神结构、汉语概念的构成以及汉语本身的特质与规律，这样的思考与西方哲学的思考究竟有什么不同？在出发点上有哪些不同，在本体论框架上有哪些差异？这些问题都值得我们在哲学层面上来加以思考与探究。</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/DNiyZBowWojC9WbXZdgPaA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩战钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统科学学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董春雨（北京师范大学哲学学院教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前主楼A803室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统科学-架起微观与宏观的桥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Yzhs_vTFyi8syZnF64nmaw</t>
+  </si>
+  <si>
+    <t>詹文杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从葛梯尔难题回看柏拉图的知识定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学博士，中国社会科学院哲学所副研究员，兼任中华全国外国哲学史学会秘书长、古希腊罗马哲学专业委员会秘书长，曾任剑桥大学古典学系和普林斯顿大学哲学系访问学者。著有《真假之辨：柏拉图&lt;智者&gt;研究》和《柏拉图知识论研究》，译有《智者》《泰阿泰德》《古代哲学史》《古希腊哲学史》（第三卷）等多部古今哲学经典，另在学术期刊发表论文多篇。研究方向为古希腊哲学、知识论、形而上学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/zP1720gtdqkeS_kv7DB-tg</t>
+  </si>
+  <si>
+    <t>806 490 615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李麒麟（北京大学）、邓明艳（中国民族大学）、陆丁（首都师范大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李主斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何为使真者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使真者是当前真理论中的显学，并被认为有重要的形而上学意蕴。那么，何为使真者？对此，当前的几种主要定义都是基于使真关系来进行的，但几乎或者受到不相关使真者难题的困扰，或者不能把恰当的使真者挑出来。在本报告中，我试图紧扣使真者的直观，即真理本体论依赖于实在，通过“本体论根源”和“典范描述”这一对概念给使真者一个新的定义，这一新的定义被预期能避免不相关使真者难题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/6zgR6YDQvkhTyTAc_gkxqQ</t>
+  </si>
+  <si>
+    <t>787 997 429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何朝安（东华大学人文学院）、王洪光（北京大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞学铨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为生活哲学的休闲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从维特根斯坦和海德格尔消解了传统哲学问题后，现当代西方哲出现了一种回归生活世界、复兴生活哲学的趋势。生活哲学的核心问题是如何过良好的生活，休闲生活是生活世界和良好生活的重要构成部分。休闲学具有明显的跨学科特征，只有将它置于生活哲学的视野下，才能把握一般意义的休闲，呈现休闲的整体图景，达到对休闲生活的深层次理解。休闲学是一种生活哲学，一种关于生活世界的现象学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/JdPo8_avP6d09dUjG8sDGQ</t>
+  </si>
+  <si>
+    <t>输入与输出：论阅读对写作的重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/_yOg8c3GVk-7D2FXrSou-g</t>
+  </si>
+  <si>
+    <t>金立（浙江大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“五大认知范式”对中国传统哲学的解释及其效应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李承贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚清以来，在西学东渐思潮中，形成了波澜壮阔的以西学理解中国传统哲学的学术实践，这种解释中国传统哲学的实践，可以概括为“五大认知范式”。其中唯物认知范式、科学认知范式、人文认知范式、逻辑认知范式属于西学身份，而“自我认知范式”是逼出来的，在一定程度上代表中国哲学立场。西学身份的“四大认知范式”对于中国传统哲学的解释，产生了积极与消极的双重效应，并成为研究和比较中外哲学的教训和经验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/uW0hfcR6UU7-zma6NnR-WA</t>
+  </si>
+  <si>
+    <t>张异宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思的批判认识论与历史认识论研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/aBauX1aaiVwdQxxQKRUw2g</t>
+  </si>
+  <si>
+    <t>李志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振华楼B214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利玛窦：经院哲学与先秦哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邂逅阶段，西方传教士不得不从自己的思想体系去理解中国哲学。因此，他们将中国哲学的某些学派比为西方哲学的某种学派，并据此对其进行分析。利玛窦率先用经院哲学的视角理解先秦儒学，肯定中国古贤人具有上帝、灵魂、鬼神的概念。不过，利玛窦去世不久，龙华民对此表达不满，他认为以宋明儒学为代表的整个儒学类似于前苏格拉底自然哲学，因此从天主教立场出发必须予以排斥。在康熙年间，卫方济试图推翻龙华民对宋明理学的排斥，从经院哲学的视角去肯定太极、理和气的概念。通过这三种尝试，我们可以再反思中西哲学比较的重要概念，如本质、物质、精神等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9SUwpy37wq87SYCHGeAmpQ</t>
+  </si>
+  <si>
+    <t>武汉大学哲学学院B107会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙华民：前苏格拉底自然哲学与宋明理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/LU2CBsr9KbT6EKLbfIteXA</t>
+  </si>
+  <si>
+    <t>武汉大学哲学学院B214会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫方济：经院哲学与宋明理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/C1VxZgMb_CTJbOLv7n-a9w</t>
+  </si>
+  <si>
+    <t>武汉大学媒体发展研究中心会议室（新闻与传播学院331）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学&amp;昆山杜克大学——哲学系列讲座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matt Lutz（武汉大学）、Emily McWilliams（昆山杜克大学）、Tim Perrine（武汉大学）、Daniel Weissglass（昆山杜克大学）、Daniel Stephens（昆山杜克大学）、欧阳霄（武汉大学）、Lindsay Mahon-Rathnam（昆山杜克大学）、李勇（武汉大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/baJqUwcfEHLHHy3gzWeP2A</t>
+  </si>
+  <si>
+    <t>现象学是一门直观的学问，其生命在于对意向结构的反思性描述，而非概念思辨。在本次报告中，我将围绕普遍直观（包括范畴直观）与本质直观在操作上的差异，尝试揭示支撑这两类直观的意识框架及其限度，并且在此基础上澄清反思、还原、构造、建构、因果、动机、习性、本性等现象学基本概念的内涵以及它们在胡塞尔现象学中的演变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何现象学地看与思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/FQNY3RydJ5n-rdrWrE9kbQ</t>
+  </si>
+  <si>
+    <t>何静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁锋（华东师范大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上山与下乡——南北区域差异视野下的神明寓所与神人关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国北方的民间信仰活动多为庙会进香，神明寓所在山上，脱嵌于乡村社区；我国南方的民间信仰活动多为绕境巡游，神明寓所在乡里，嵌入于乡村社区。民间信仰活动是否嵌入信众所在社会网络，将塑造民间信仰活动的私人化/公共性以及不同类型的人神关系，也决定了民间信仰活动可否增进社区的社会资本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/lDiKk-S7odrpLFD4XX6RuQ</t>
+  </si>
+  <si>
+    <t>中世纪哲学中的信仰与理性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵敦华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“中世纪”不仅是一个世界史概念，而是一个哲学概念。哲学史上，中世纪是“中间”，上承古代哲学之余绪，下开近现代（modern）哲学之先河。哲学史意义的中世纪哲学包括从2世纪开始的教父哲学、从11世纪开始的经院哲学，以及15-16世纪的晚期中世纪哲学。在这三个大的阶段，宗教信仰和希腊哲学既相结合，又保持着张力，信仰与理性关系是哲学其他问题的枢纽。我们可以看到这样一种带规律的现象：在中世纪哲学重要转折时期总会出现信仰派、理性派和综合派三种立场，信仰派往往暂时占上风，但最终胜利的总是综合派。在教父时期，信仰派最初表现为原教旨主义，理性派则以诺斯替异端为代表，而以奥古斯丁为代表理性辩护主义最终取得正统地位。在经院哲学诞生时期，理性派和信仰派的斗争表现为辩证法和反辩证法的对立，以安瑟尔谟为代表的辨证神学综合两者，成为正统派。13世纪亚里士多德主义传入后，理性派和信仰派表现为拉丁阿维洛伊主义和波那文图那主义之间的斗争，综合两派立场的托马斯主义最终取得正统地位。在中世纪晚期，奥康主义造成经院哲学的分裂，而人文主义思潮全盘复兴希腊-罗马的理性文化，宗教改革派“唯有信仰”的神学为早期近代哲学开辟了道路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/kCzYDXbUYCbkupEWvwTgkA</t>
+  </si>
+  <si>
+    <t>汉语条件句违实义的表现形式与可及因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王春辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉语条件句中有表达违实语义的词汇和语法形式，但是这些形式却无法构成违实范畴这一语法实体, 不是作为一个狭义句法范畴而存在，而是作为一个语义范畴而存在，因此汉语条件句不区分Comrie(1986)所提出的“假设性等级”。汉语的违实条件句可以分为语用类、常理类、当下类和过去类四类。汉语条件句违实义的达成则与五大因素关系密切。其中，语境和否定是出现频率最高的两个因素，而百科知识和语境则是达成违实义的最可及因素。此外，绝大多数情况下，汉语条件句违实义的达成依靠的不是某一个因素，而是几个因素的组合。组合的模式多种多样，它们共同构成了汉语条件句违实义达成的“复合系统”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/HjHrzYPA18Aqr1SZb2v9ig</t>
+  </si>
+  <si>
+    <t>668 977 636</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵和平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦理道德的精神哲学形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/zIXVajMDujj7iYI3zFiG5g</t>
+  </si>
+  <si>
+    <t>伦理学如何收拾“现代性碎片”，建构人的精神世界和生活世界的合理性？中国伦理型文化到底为世界提供了何种中国经验而成为人类文明的独特形态？全球化时代的中国伦理道德及其哲学理论如何继续成为人类文明的独特风情？讲座围绕“精神—精神哲学—精神哲学形态”的进路，基于中西方两大精神哲学传统，讨论伦理道德的三种精神哲学形态，以及与之相关的中国话语和中国理论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学与科学系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨大春（浙江大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学图书馆紫金港校区农医分馆二楼报告厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第三届“预流”的中国哲学研究工作坊——先秦哲学的隐喻世界与道家之思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匡钊（中国社会科学院哲学研究所）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景海峰（深圳大学国学院）、陈声柏（兰州大学哲学社会学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王兴国（深圳大学国学院）、邓联合（中山大学哲学系（珠海））、王格（上海财经大学哲学系）、李大华（深圳大学哲学系）、贡华南（华东师范大学哲学系）、姜宗强（西北师范大学哲学学院）、戴兆国（安徽师范大学）、魏宏远（兰州大学中文系）、郭美华（上海财经大学哲学系）、朱承（华东师范大学哲学系）、任蜜林（中国社会科学院哲学研究所）、叶树勋（南开大学哲学院）、问永宁（深圳大学哲学系）、李畅然（北京大学儒藏编纂中心）、刘亮（北京师范大学历史学院）、宋德刚（广州美术学院马克思主义学院）、黄燕强（暨南大学哲学研究所）、张永路（天津社会科学院哲学研究所）、刘依平（暨南大学哲学研究所）、蔡卓（深圳大学马克思主义学院）、袁晓晶（上海大学社科学部）、王顺然（深圳大学饶宗颐研究院）、姜宗强（西北师范大学哲学学院）、何杨（中山大学逻辑与认知研究所）、李庭绵（澳门大学哲学与宗教学系）、陈之斌（湖南大学岳麓书院）、李国斌（西南财经大学人文学院）、崔晓姣（北京师范大学哲学学院）、徐翔（中山大学公共与政治事务学院）、李巍（武汉大学哲学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/lRT5EY--8Ai3uTvTwqkYGg</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/MnzlHsNuxWqcQckWpKLE6g</t>
+  </si>
+  <si>
+    <t>振华楼哲学学院B107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四届“分析进路伦理学·学术书评会”会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段素革（《道德与文明》）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭安奎（中山大学）、应奇（华东师范大学）、惠春寿（华东师范大学）、朱佳峰（中山大学）、田杰（中国人民大学）、张旭斌（中南财经政法大学）、武云（上海交通大学）、陈晓旭（武汉大学）、张媛媛（《湖北大学学报》）、陈肖生（南京大学）、张途（上海财经大学）、李勇（武汉大学）、叶金州（华中科技大学）、陈雅文（深圳大学）、骆意中（上海师范大学）、陶文佳（湖北大学）、牛婷婷（《哲学分析》）、徐峰（华东师范大学）、陈江进（武汉大学）、高景柱（天津师范大学）、葛四友（武汉大学）、刘晓飞（厦门大学）、阮航（湖北大学）、王韬洋（华东师范大学）、潘磊（武汉大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/BdmaGrbbLko0inZ2lyOsiQ</t>
+  </si>
+  <si>
+    <t>曾劭恺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德意志观念论&amp;浪漫主义</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/7KyphMPYKKJudHgAWsXtOA</t>
+  </si>
+  <si>
+    <t>武汉大学万林艺术博物馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞿旭彤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从巴特的宗教批判看巴特对康德的继承与批判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/VU56UQny1-ed5hwM2bPwLA</t>
+  </si>
+  <si>
+    <t>“是”与“真”——两种哲学的途径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/SBTtPoRmJoT5gm9EZ8Kp_w</t>
+  </si>
+  <si>
+    <t>付长珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论儒家的伦理知识观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/vRUBKUACZClejeb-I0YzFg</t>
+  </si>
+  <si>
+    <t>陈声柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再思《公孙龙子·坚白论》的主旨及其相关问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈声柏教授，兰州大学哲学社会学院院长、甘肃中国传统文化研究会会长、《科学·经济·社会》期刊主编、《国学论衡》集刊执行主编。主要研究领域包括中国哲学/思想史、中西哲学比较、中国宗教研究和科学思想史。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/L28VEywSMNEuzPuxLZ-QNQ</t>
+  </si>
+  <si>
+    <t>何杨（副教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡昌堂322室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patricia Meindl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥本哈根大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体意向性和人际承认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/vGCBOvwOjND8C7maYdZwtg</t>
+  </si>
+  <si>
+    <t>https://live.bilibili.com/23033826</t>
+  </si>
+  <si>
+    <t>韩骁（中国社会科学院哲学研究所）、蔡文菁（上海交通大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩军（中国政法大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说“阐”论“诠”识“Hermeneutik”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘德荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hermeneutik（诠释学）似乎携带着与生俱来的神秘性，它覆盖了几乎全部的人文学科领域，也发展出了形态各异的诸多诠释学体系，在今天甚至延伸到了自然科学研究领域，形成了诸如科学诠释学、量子诠释学等。这种情况加剧了我们对“诠释学”本身的理解之困惑，甚至对“Hermeneutik”一词之中译名，也未能达到共识。本讲座通过阐、诠之辨，厘清当代诠释学的基本诉求：相互理解，这种理解以善良的意愿为前提。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Nd4Ji53a7RC80BX2oeRuHA</t>
+  </si>
+  <si>
+    <t>徐洪兴（复旦大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学系2102会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程相占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态美学构建与学术自信之建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建生态美学的学术准则是"全球共同问题,国际通行话语"。这条准则一方面隐含着中国美学走向世界的必由之路,另外一方面隐含着建立学术自信的途径和标准:能够从生态美学角度回应全球共同问题,能够采用国际通行话语来著书立说,能够解决国际一流学者尚未解决或尚未意识到的重要学术问题。只有做到了这些,学术自信才能真正建立起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/aplrNHsyzJQnRE849LBPkA</t>
+  </si>
+  <si>
+    <t>文学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妥建清（教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中西文化四手联弹：秦汉——罗马：制度差异与历史影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯天瑜（武汉大学）、唐翼明（华中师范大学国学院）、陈浩武、赵林（武汉大学哲学学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/y4nhGuFT1hT1H4ydxyiEGw</t>
+  </si>
+  <si>
+    <t>义理溯源：对《左传》本身义理之探究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历代《左传》学者借《左传》所阐释之义理，不同于《左传》本身之义理。因此有必要由历代《左传》学之层层阐释，回溯到对《左传》本身之义理探究。应从三方面着力：其一，明确《左传》是以传事的方式传义，传事与传义不可分割；其二，彻底破除门户之见和学派之争，与《公羊传》《穀梁传》进行客观地比较研究，以呈现出《左传》独有的哲学思考与诠释方式；其三，对历代《左传》学层累阐释过程进行解剖，尤其应在《左传》义、杜预义、孔颖达义之间做出区分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/WsdKTOKZjUPmmZw-kA-ypQ</t>
+  </si>
+  <si>
+    <t>哲学院博士后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何益鑫（复旦大学哲学学院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复旦大学光华楼西主楼2401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马明辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时序逻辑与形而上学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次讲座将结合马明辉教授的研究，从时序逻辑的历史发展到前沿问题的研究全面展现现代时序逻辑研究中关注的技术和形而上学问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/wObRvdQAn-cnTjgsj_IpJw</t>
+  </si>
+  <si>
+    <t>林哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stephen Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进步的儒家思想及其批评者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/tXzHy8RM-Hs8t-AnE_loDQ</t>
+  </si>
+  <si>
+    <t>卫斯理大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进步的儒家思想是对儒家传统不断发展的承诺，强调批判性地接受现代性对我们多元社会的独特影响的重要性。进步的儒家思想并不旨在复制过去的制度结构，除非这些结构仍然有效地促进当代世界儒家核心价值观的实现。许多进步的儒学者以个人和集体的道德进步为核心价值，而这正是儒家思想所追求的。本讲座将概述进步的儒学的当代形态，并探讨它所卷入的一些关键学术争议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李长春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文质彬彬 ——先秦儒学观念结构的德性论阐释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先秦儒学中的德性名目，可以依据无待教养而有和有待教养而成划分为自然德性（质德）和教养德性（文德）。在此基础之上，可以打开孔子之“学”的阐释空间，亦可回答儒家思想中“美德是否可教”的问题，甚至可以找到儒道两家的共同根基，并解释其基本分歧之根源所在。在儒家看来，自然德性是教化得以展开的前提和基础；但教化并非改造或取消自然德性，反而是通过教养德性的获得来守护自然德性，这即是“文质彬彬”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/upo2yZVCl9UuYOpRrEVogg</t>
+  </si>
+  <si>
+    <t>王昌伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年“学衡”人文讲座第一讲：胡寅的夷夏观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本讲座旨在通过考察胡寅（1098-1156）的华夷之辨，探究与道学运动相联系的特定思想家群体如何构想他们与异族的关系。胡寅明确反对夷狄进入中国，因此他的“使夷狄而为中国之事，是亦中国矣”之论，成为了学者理解其华夷观念的难题。一些学者认为这不过是前后矛盾，另一些学者则试图基于胡寅的宇宙论和伦理观进行解释。然而，他们都深受朱熹强有力的“理-气”框架的影响，倾向于认为胡寅也主张道德和文化的普遍性，因为他相信包括夷狄在内的所有人类，都被赋予由“理”所决定的与生俱来的道德本性。而本讲座将指出，如果深入考察胡寅的夷狄之论与其哲学思想的联系，这种所谓的矛盾就将不复存在。同时，不应误以为胡寅和朱熹一样，将“理”视为决定人类天性的创造性本原，从而与赋予万物形体和秉性的“气”相对立。在胡寅看来，“理”是差异和等级的原则，在人类身上，则是对于道德粹驳的自然偏向。这一原则是普遍的，因为“天”正是如此通过“气”的运行创生万物，并将它们分门别类，彼此区隔既然天地运行的规律正是如此，夷狄作为人类之中一个特殊的低等类别，自然不可同处于中国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/AxicwfnhEc_VD9ezxaYx3A</t>
+  </si>
+  <si>
+    <t>新加坡国立大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>933 644 240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭国翔（浙江大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识与行动——从《薄伽梵歌》的行动哲学看现代人的精神生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度古代文明经典《薄伽梵歌》展现了终极关怀的生命哲学，也是天人大义的“至尊教育”，它的特殊之处在于，此教育居然是在俱卢之野，在正义与非正义的法的战场上展开。这个叙述场所意义重大：此经典不是让我们逃离世间，而是让我们在世间“战斗”，入这个世间去承担。人生的严峻性在于——“种豆南山下，草盛豆苗稀”，经常是再怎么地努力，还不免于失败，因而人在困境就好像进入俱卢战场，需要持有一颗不为这些承担的种种而焦虑，为其中的成败得失而忐忑的安定自在之心。在这个层面上，《薄伽梵歌》提供了“两双眼睛”，用中国人熟悉的观念来说，就是“一以物观，观生灭；一以道观，观不朽”；因而它也能够帮助现代人提供精神食粮、对抗虚无主义、自觉履行社会责任、充分展开生活活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9835JqXnvNcx34UReQP5Pg</t>
+  </si>
+  <si>
+    <t>中国美术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉中国协同创新中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志成（浙江大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文大楼哲学系308室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩格斯与社会工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓理新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般认为玛丽·里士满在1917年出版的《社会诊断》标志着专业社会工作的诞生。里士满也因此被人们誉为专业社会工作的创始人。其实，恩格斯早在1843年开始，就在英国进行了广泛而深入的调查，访问矿山和工人家庭，查阅议会报告以及工厂视察员、医生和教师们的证词、并去伦敦、利物浦等工业中心实地考察，搜集了大量关于英国工人生活条件的第一手材料。恩格斯把这些社会调查的材料及其观点写进了《英国工人阶级状况》于1845年3月出版。2020年在恩格斯诞生200年之际，主讲人重温了《状况》，并将恩格斯对马克思主义社会学和社会工作的贡献重述在讲座中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/cfZARBTbqa4gkgCGENEJmQ</t>
+  </si>
+  <si>
+    <t>城关校区杏林楼406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pavel Pudlak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Journey from Peano Arithmetic to Proff Complexity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proof complexity is a fast growing field connected to logic, computational complexity, and combinatrorial optimization. In order to fully understand the concepts and their importance, one should go to the roots of this field and follow its history. It started with investigations of the Hilbert school at the beginning of the 20th century, whose aim was to prove consistency and completeness of basic theories used in the foundations of mathematics. After the groundbreaking result of Goedel in the 1930s, the incompleteness of Peano Arithmetic and any theory extending it, the focus turned to the study of fragments of Peano Arithmetic. With the advent of computational complexity theory in the 1970s, connections between weak fragments and complexity classes were discovered. Soon after that provability of certain sentences in weak fragments was connected with the existence of polynomial length propositional proofs of sequences of tautologies expressing these sentences in propositional logic. Another boost for the emerging field of proof complexity came from the realization that several heuristic used in combinatorial optimization could be viewed as propositional proof systems. In this lecture we will briefly review the history and introduce basic concepts of proof complexity. After that we will demonstrate on a concrete example how one can prove an independence result using propositional proof complexity.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/b9YaBD_9ovyOjTNEyiBzQA</t>
+  </si>
+  <si>
+    <t>捷克科学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>693 0929 0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识的本体论与方法论命运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王巍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen Longino强调多元主义与地方知识论，但Philip Kitcher主张个人主义的理性观。笔者建议，把知识的命运再细分为本体论与方法论。Kitcher的个人主义可以看作是本体论的，而Longino“非个人主义的个人”所批评的对象是方法论个人主义。这样Kitcher与Longino的观点并不冲突，前者甚至可以为后者提供微观基础。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/4VRaJ_PEn1GpC0kGrTgqZw</t>
+  </si>
+  <si>
+    <t>科学史系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶峰（首都师范大学）、朱清华（首都师范大学）、孙蹇谦（中央美术学院讲师）、田继江（首都师范大学讲师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭笑（首都师范大学副教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都师范大学北一区 文科楼801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张文喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《资本论》的逻辑：对列宁的论断的意义再反思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/TyCTmeLPDKmt2xAK72cD1A</t>
+  </si>
+  <si>
+    <t>周凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰久富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主楼八层A807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从比较视野下看韩非子对古今之变与人性的理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩非子可能是传统中国思想家中，最容易被西方学者理解的一位。他对古今之变也有明确的论述。从中西古今比较的视角探讨他的思想，会有很大收获。就作为他的思想之核心的人性论说而言，与通常所说的性恶论不同，韩非子承认人性中有善的一面，并且他接受了物质丰富的古代人类和平的想象。这一图景，与性恶论者荀子和霍布斯等人的理解都有根本不同。并且，韩非子将古代与历史当作被解释的对象，而非规范来源，这与战国思想的主流很不一样，而更接近西方思想中对历史的处理。虽然他承认人的朴素善心，但在物质匮乏的条件下，他认为人类朴素的善心失效，利害计算成为人行动的主要驱动力。但绝大多数人只能对眼前的物质利益进行计算，而只有少数人才有能力进行长远物质利益计算。除了理性能力外，人类还有其独有的虚荣，这构成了人类行动的次要驱动力。在少数地方，韩非子承认了极少数人可以发自内心地超越利害、追求道德，但他们是国家制度的破坏者，不应推崇。在趋利与避害之间，韩非子认为避害比趋利更具有驱动力，这是他推崇重罚少赏的一个原因。这使得他的立场与同样强调趋利避害的功利主义者的立场又有不同。最后，我会从各种角度，包括借助当代道德心理学的研究，对韩非子的人性论提出一些初步的质疑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/lMfUmRrCCZzG2DtQAjm40g</t>
+  </si>
+  <si>
+    <t>韩林合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化学楼227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京大学外国哲学研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> “中国古典的人性与规范性观念”研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德性即知识吗？柏拉图论德性的多样性与统一性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏格拉底有言德性即知识，但又区分了正义、节制、勇敢诸德性，名称各异的德性与知识或智慧到底有何关联？德性为何既有多样性，又具统一性？本讲座将探讨，柏拉图区分德性的“多”与“一”，旨在检审各种习传德性的内在缺陷，从而提升到整全的知识和智慧层面，并保留不同类型的人的不同德性。爱智慧的哲学并非一种固定的技艺或知识，而是对宇宙大全之谜的永恒思索和探究热望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/HoWzLi7dtzHwBZCIunPDzQ</t>
+  </si>
+  <si>
+    <t>浙江大学紫金港人文大楼107会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗礼之教与公共生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗礼之教在中国传统社会长期延续，在当代也有复兴之势。一方面，“诗礼文化”在传统公共生活中有着强大的惯性，这一历史惯性从先秦一直延续到当代；另一方面，“诗礼之教”是为了维护社会秩序而进行的教化与规范，切中了公共生活对教化与规范的诉求。基于社会忧患的心态，当下仍然期望从“诗礼”传统中去寻找思想资源，并以之推动审美再塑和道德重建，从而实现公共生活中的优雅与秩序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/PqE5uT_iXoM52Z_36B2reA</t>
+  </si>
+  <si>
+    <t>陈乔见（中山大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兰芬（中山大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学南校园锡昌堂515会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙周兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来哲学的基本概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙周兴，1963年生，绍兴会稽人。1984年毕业于浙江大学地质学系，获理学士学位；1992年毕业于杭州大学哲学系，获哲学博士学位；1996年起任浙江大学教授；1999—2001年在德国从事洪堡基金课题研究；现任同济大学特聘教授、首都师范大学特聘教授、中国美术学院讲座教授、教育部长江学者特聘教授，兼任国务院学位委员会第七届学科评议组成员、同济大学校学术委员会副主任、同济大学欧洲思想文化研究院院长等。主要研究领域为德国哲学、艺术哲学、技术哲学等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/UYBCaIN59ItSU1l5rWCxYw</t>
+  </si>
+  <si>
+    <t>王巍（清华大学）、程广云（首都师范大学）、谭笑（首都师范大学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四届长三角中国哲学博士点论坛暨中国哲学“是什么”与“如何做”学术研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡华南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘梁剑、刘仲林、周可真、魏福明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苟东锋、陈卫平、杨维中、吴先伍、宛小平、何善蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间现象学与世界哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-Uyn76tc_hbu5SOpnbvnQQ</t>
+  </si>
+  <si>
+    <t>方向红（中山大学哲学系教授）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学南校园哲学系锡昌堂515室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化揭露论证与近因/远因之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德实在论（moral realism）与道德反实在论（moral anti-realism）之争是当代元伦理学研究中的重要议题之一，进化揭露论证（evolutionary debunking arguments）的提出进一步加剧了人们在这一议题上的争论。进化揭露论证主要是针对道德实在论而提出的,它基于道德信念起源的进化解释表明，道德事实与道德信念之间存在裂隙，道德实在论框架下的道德信念是未得到辩护的。面对该论证，道德实在论者给出的一种回应是，生物学中存在着近因与远因的区分，道德信念起源的进化解释是远因层次上的解释，它并不妨碍道德事实与道德信念能够在近因层次上相互关联，道德信念可以由此得到辩护。本报告将指出，这一回应是不成功的，它混淆了近因与远因之间的关系，从而导致在两个不同的层次上会出现两种相互冲突的解释。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李胜辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/m9BJolp7np6dekyA7VDS5A</t>
+  </si>
+  <si>
+    <t>河南师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学与公共管理学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞法（湖南大学马克思主义学院）、王淑庆（湖南师范大学哲学系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡发贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟子“王无罪岁”论的政治意涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡发贵，江苏省社会科学院哲学与文化研究所研究员、所长，江苏省有突出贡献中青年专家。江苏省人民政府参事，江苏省君子文化研究中心主任，中国实学会副会长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/VG_uuO5Qu2-6tn3dsIXOvQ</t>
+  </si>
+  <si>
+    <t>江苏省社会科学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学与文化研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何善蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“现代国家形成：澄清与反思”青年学者工作坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕一民、葛洪义、应奇、孟钟捷、陈亚飞、田明孝、白中林、傅乾、朱渝阳、刘训练、王巍、张弛、孙光恩、乐启良、方博、李哲罕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/fXrQj_seVRO2IZF-1NfX9A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3992,6 +5085,45 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4015,7 +5147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4048,6 +5180,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4363,10 +5516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B99913D-A3A8-4418-AE6B-B8A40D3CEF27}">
-  <dimension ref="A1:S169"/>
+  <dimension ref="A1:S218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11727,7 +12880,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:19">
       <c r="A161" t="s">
         <v>79</v>
       </c>
@@ -11774,7 +12927,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:19">
       <c r="A162" t="s">
         <v>276</v>
       </c>
@@ -11821,7 +12974,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:19">
       <c r="A163" t="s">
         <v>593</v>
       </c>
@@ -11865,7 +13018,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:19">
       <c r="A164" t="s">
         <v>30</v>
       </c>
@@ -11912,7 +13065,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:19">
       <c r="A165" t="s">
         <v>30</v>
       </c>
@@ -11959,7 +13112,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:19">
       <c r="A166" t="s">
         <v>79</v>
       </c>
@@ -12006,7 +13159,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:19">
       <c r="A167" t="s">
         <v>76</v>
       </c>
@@ -12053,7 +13206,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:19">
       <c r="A168" t="s">
         <v>30</v>
       </c>
@@ -12103,7 +13256,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:19">
       <c r="A169" t="s">
         <v>217</v>
       </c>
@@ -12154,6 +13307,2319 @@
       </c>
       <c r="R169" s="3" t="s">
         <v>1007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="15.6">
+      <c r="A170" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" t="s">
+        <v>32</v>
+      </c>
+      <c r="C170" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R170" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171" t="s">
+        <v>688</v>
+      </c>
+      <c r="C171" s="1">
+        <v>44323</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I171" t="s">
+        <v>37</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q171" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R171" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S171" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172" t="s">
+        <v>32</v>
+      </c>
+      <c r="C172" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L172" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M172" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" t="s">
+        <v>351</v>
+      </c>
+      <c r="B173" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" s="1">
+        <v>44324</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E173" t="s">
+        <v>923</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K173" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L173" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q173" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R173" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" t="s">
+        <v>315</v>
+      </c>
+      <c r="C174" s="1">
+        <v>44327</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O174" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R174" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" t="s">
+        <v>102</v>
+      </c>
+      <c r="B175" t="s">
+        <v>32</v>
+      </c>
+      <c r="C175" s="1">
+        <v>44324</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K175" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="L175" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O175" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="R175" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" t="s">
+        <v>360</v>
+      </c>
+      <c r="B176" t="s">
+        <v>688</v>
+      </c>
+      <c r="C176" s="1">
+        <v>44324</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K176" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="L176" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O176" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E177" t="s">
+        <v>169</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K177" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L177" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O177" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>148</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" t="s">
+        <v>494</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="1">
+        <v>44329</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="L178" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O178" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P178" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" ht="14.4" customHeight="1">
+      <c r="A179" t="s">
+        <v>543</v>
+      </c>
+      <c r="B179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="K179" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L179" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M179" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N179" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O179" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P179" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q179" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="R179" s="5" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
+      <c r="A180" t="s">
+        <v>473</v>
+      </c>
+      <c r="B180" t="s">
+        <v>32</v>
+      </c>
+      <c r="C180" s="1">
+        <v>44329</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="K180" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L180" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M180" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N180" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O180" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P180" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Q180" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
+      <c r="A181" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="1">
+        <v>44327</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K181" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L181" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O181" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q181" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="R181" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="A182" t="s">
+        <v>79</v>
+      </c>
+      <c r="B182" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="1">
+        <v>44328</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E182" t="s">
+        <v>287</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L182" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O182" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q182" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R182" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B183" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183" s="1">
+        <v>44329</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K183" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L183" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O183" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q183" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R183" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
+      <c r="A184" t="s">
+        <v>76</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="1">
+        <v>44324</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K184" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L184" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O184" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q184" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="R184" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
+      <c r="A185" t="s">
+        <v>76</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="1">
+        <v>44328</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E185" t="s">
+        <v>604</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K185" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L185" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O185" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R185" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
+      <c r="A186" t="s">
+        <v>76</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="1">
+        <v>44329</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E186" t="s">
+        <v>604</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K186" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L186" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O186" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R186" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
+      <c r="A187" t="s">
+        <v>76</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E187" t="s">
+        <v>604</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L187" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O187" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R187" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
+      <c r="A188" t="s">
+        <v>38</v>
+      </c>
+      <c r="B188" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E188" t="s">
+        <v>238</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K188" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L188" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O188" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P188" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q188" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R188" s="11" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
+      <c r="A189" t="s">
+        <v>102</v>
+      </c>
+      <c r="B189" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="1">
+        <v>44328</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K189" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="L189" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O189" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>408</v>
+      </c>
+      <c r="R189" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
+      <c r="A190" t="s">
+        <v>217</v>
+      </c>
+      <c r="B190" t="s">
+        <v>32</v>
+      </c>
+      <c r="C190" s="1">
+        <v>44331</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="K190" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L190" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O190" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" ht="15">
+      <c r="A191" t="s">
+        <v>494</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="L191" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M191" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N191" s="12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O191" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q191" s="13"/>
+      <c r="R191" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
+      <c r="A192" t="s">
+        <v>79</v>
+      </c>
+      <c r="B192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K192" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="L192" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O192" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>1127</v>
+      </c>
+      <c r="R192" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
+      <c r="A193" t="s">
+        <v>76</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E193" t="s">
+        <v>502</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L193" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O193" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R193" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
+      <c r="A194" t="s">
+        <v>76</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44331</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K194" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L194" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O194" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R194" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
+      <c r="A195" t="s">
+        <v>76</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44331</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K195" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L195" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O195" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R195" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
+      <c r="A196" t="s">
+        <v>76</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E196" t="s">
+        <v>232</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K196" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L196" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O196" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R196" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
+      <c r="A197" t="s">
+        <v>360</v>
+      </c>
+      <c r="B197" t="s">
+        <v>688</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L197" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O197" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R197" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
+      <c r="A198" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L198" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O198" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>1156</v>
+      </c>
+      <c r="R198" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
+      <c r="A199" t="s">
+        <v>79</v>
+      </c>
+      <c r="B199" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44333</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K199" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L199" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M199" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N199" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O199" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P199" s="12" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q199" s="12" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
+      <c r="A200" t="s">
+        <v>38</v>
+      </c>
+      <c r="B200" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44335</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K200" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L200" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O200" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R200" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
+      <c r="A201" t="s">
+        <v>473</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44337</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K201" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="L201" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M201" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N201" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="O201" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="1">
+        <v>44333</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K202" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L202" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O202" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R202" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
+      <c r="A203" t="s">
+        <v>276</v>
+      </c>
+      <c r="B203" t="s">
+        <v>32</v>
+      </c>
+      <c r="C203" s="1">
+        <v>44333</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K203" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L203" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O203" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R203" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
+      <c r="A204" t="s">
+        <v>30</v>
+      </c>
+      <c r="B204" t="s">
+        <v>32</v>
+      </c>
+      <c r="C204" s="1">
+        <v>44336</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K204" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L204" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M204" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O204" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q204" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="R204" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
+      <c r="A205" t="s">
+        <v>102</v>
+      </c>
+      <c r="B205" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205" s="1">
+        <v>44335</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J205" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K205" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L205" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O205" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q205" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="R205" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
+      <c r="A206" t="s">
+        <v>79</v>
+      </c>
+      <c r="B206" t="s">
+        <v>32</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44335</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K206" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L206" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M206" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N206" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="O206" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q206" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
+      <c r="A207" t="s">
+        <v>79</v>
+      </c>
+      <c r="B207" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44335</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K207" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="L207" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O207" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q207" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R207" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
+      <c r="A208" t="s">
+        <v>351</v>
+      </c>
+      <c r="B208" t="s">
+        <v>352</v>
+      </c>
+      <c r="C208" s="1">
+        <v>44335</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="K208" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L208" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O208" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R208" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
+      <c r="A209" t="s">
+        <v>76</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44334</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K209" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L209" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M209" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N209" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="O209" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P209" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q209" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
+      <c r="A210" t="s">
+        <v>543</v>
+      </c>
+      <c r="B210" t="s">
+        <v>32</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44337</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J210" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="L210" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O210" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P210" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="Q210" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="R210" s="11" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
+      <c r="A211" t="s">
+        <v>494</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44336</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J211" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K211" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L211" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O211" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P211" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q211" s="11" t="s">
+        <v>1241</v>
+      </c>
+      <c r="R211" s="11" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" t="s">
+        <v>377</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44337</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E212" t="s">
+        <v>801</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J212" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K212" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L212" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M212" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N212" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="O212" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q212" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R212" s="11" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
+      <c r="A213" t="s">
+        <v>79</v>
+      </c>
+      <c r="B213" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44337</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E213" t="s">
+        <v>855</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K213" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L213" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O213" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q213" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="R213" s="11" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
+      <c r="A214" t="s">
+        <v>102</v>
+      </c>
+      <c r="B214" t="s">
+        <v>32</v>
+      </c>
+      <c r="C214" s="1">
+        <v>44338</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J214" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K214" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L214" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O214" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P214" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Q214" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="R214" s="11" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
+      <c r="A215" t="s">
+        <v>543</v>
+      </c>
+      <c r="B215" t="s">
+        <v>32</v>
+      </c>
+      <c r="C215" s="1">
+        <v>44337</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J215" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K215" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L215" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O215" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P215" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Q215" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="R215" s="5" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
+      <c r="A216" t="s">
+        <v>102</v>
+      </c>
+      <c r="B216" t="s">
+        <v>32</v>
+      </c>
+      <c r="C216" s="1">
+        <v>44337</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E216" t="s">
+        <v>78</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G216" t="s">
+        <v>976</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J216" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K216" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L216" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O216" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q216" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R216" s="5" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
+      <c r="A217" t="s">
+        <v>309</v>
+      </c>
+      <c r="B217" t="s">
+        <v>688</v>
+      </c>
+      <c r="C217" s="1">
+        <v>44337</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J217" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K217" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="L217" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M217" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N217">
+        <v>540380077</v>
+      </c>
+      <c r="O217" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P217" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q217" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R217" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
+      <c r="A218" t="s">
+        <v>79</v>
+      </c>
+      <c r="B218" t="s">
+        <v>32</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44339</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J218" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K218" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L218" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O218" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q218" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="R218" s="5" t="s">
+        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -12165,17 +15631,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49DD84-901B-4A31-B34D-68CD70389508}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="C23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12188,7 +15655,7 @@
       <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>64</v>
       </c>
       <c r="H1" t="s">
@@ -12211,10 +15678,10 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H2" t="s">
@@ -12240,10 +15707,10 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="16" t="s">
         <v>74</v>
       </c>
       <c r="J3" t="s">
@@ -12263,7 +15730,7 @@
       <c r="D4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>113</v>
       </c>
       <c r="J4" t="s">
@@ -12283,10 +15750,10 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="16" t="s">
         <v>131</v>
       </c>
       <c r="H5" t="s">
@@ -12315,7 +15782,7 @@
       <c r="E6" t="s">
         <v>162</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>159</v>
       </c>
       <c r="J6" t="s">
@@ -12335,7 +15802,7 @@
       <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -12352,7 +15819,7 @@
       <c r="D8" t="s">
         <v>162</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>178</v>
       </c>
     </row>
@@ -12369,7 +15836,7 @@
       <c r="D9" t="s">
         <v>162</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12386,7 +15853,7 @@
       <c r="D10" t="s">
         <v>162</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>204</v>
       </c>
     </row>
@@ -12403,7 +15870,7 @@
       <c r="D11" t="s">
         <v>162</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12420,7 +15887,7 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="14" t="s">
         <v>283</v>
       </c>
       <c r="I12" t="s">
@@ -12443,7 +15910,7 @@
       <c r="D13" t="s">
         <v>112</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="14" t="s">
         <v>298</v>
       </c>
       <c r="I13" t="s">
@@ -12466,7 +15933,7 @@
       <c r="D14" t="s">
         <v>360</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="14" t="s">
         <v>361</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -12492,10 +15959,10 @@
       <c r="E15" t="s">
         <v>371</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="16" t="s">
         <v>373</v>
       </c>
       <c r="H15" t="s">
@@ -12521,10 +15988,10 @@
       <c r="D16" t="s">
         <v>371</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="16" t="s">
         <v>386</v>
       </c>
       <c r="H16" t="s">
@@ -12550,7 +16017,7 @@
       <c r="D17" t="s">
         <v>431</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="16" t="s">
         <v>432</v>
       </c>
       <c r="H17" t="s">
@@ -12573,10 +16040,10 @@
       <c r="D18" t="s">
         <v>112</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="16" t="s">
         <v>923</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -12633,10 +16100,10 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="16" t="s">
         <v>85</v>
       </c>
       <c r="I21" t="s">
@@ -12659,7 +16126,7 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="14" t="s">
         <v>622</v>
       </c>
     </row>
@@ -12679,7 +16146,7 @@
       <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="15" t="s">
         <v>646</v>
       </c>
       <c r="I23" t="s">
@@ -12705,10 +16172,10 @@
       <c r="E24" t="s">
         <v>657</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="17" t="s">
         <v>659</v>
       </c>
       <c r="I24" t="s">
@@ -12734,10 +16201,10 @@
       <c r="E25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="16" t="s">
         <v>386</v>
       </c>
       <c r="H25" t="s">
@@ -12766,7 +16233,7 @@
       <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="14" t="s">
         <v>734</v>
       </c>
       <c r="I26" t="s">
@@ -12792,10 +16259,10 @@
       <c r="E27" t="s">
         <v>32</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="16" t="s">
         <v>408</v>
       </c>
       <c r="H27" t="s">
@@ -12818,7 +16285,7 @@
       <c r="D28" t="s">
         <v>217</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="14" t="s">
         <v>973</v>
       </c>
       <c r="I28" t="s">
@@ -12841,10 +16308,10 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="16" t="s">
         <v>993</v>
       </c>
       <c r="I29" t="s">
@@ -12867,7 +16334,7 @@
       <c r="E30" t="s">
         <v>32</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="14" t="s">
         <v>1010</v>
       </c>
       <c r="I30" t="s">
@@ -12875,6 +16342,167 @@
       </c>
       <c r="J30" t="s">
         <v>1012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44330</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44332</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44332</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44334</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44337</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I35" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44339</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44338</v>
+      </c>
+      <c r="C37" t="s">
+        <v>656</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
